--- a/idioms_data.xlsx
+++ b/idioms_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="21431" windowHeight="9527"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="695">
   <si>
     <t>srno</t>
   </si>
@@ -44,6 +44,9 @@
     <t>image name</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Break the ice</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>breaktheice</t>
   </si>
   <si>
+    <t>Idiom</t>
+  </si>
+  <si>
     <t>Hit the sack</t>
   </si>
   <si>
@@ -1008,6 +1014,1104 @@
   </si>
   <si>
     <t>afriendinneedisafriendindeed</t>
+  </si>
+  <si>
+    <t>Throw caution to the wind</t>
+  </si>
+  <si>
+    <t>Take a risk</t>
+  </si>
+  <si>
+    <t>She threw caution to the wind and invested in the startup</t>
+  </si>
+  <si>
+    <t>Add insult to injury</t>
+  </si>
+  <si>
+    <t>Make a bad situation worse</t>
+  </si>
+  <si>
+    <t>He added insult to injury by laughing at her mistake</t>
+  </si>
+  <si>
+    <t>Bite off more than you can chew</t>
+  </si>
+  <si>
+    <t>Take on a task that's too big</t>
+  </si>
+  <si>
+    <t>He bit off more than he could chew by agreeing to lead three projects</t>
+  </si>
+  <si>
+    <t>Call it a day</t>
+  </si>
+  <si>
+    <t>Stop working on something</t>
+  </si>
+  <si>
+    <t>Let’s call it a day and finish this tomorrow</t>
+  </si>
+  <si>
+    <t>Cry over spilt milk</t>
+  </si>
+  <si>
+    <t>Complain about something that can't be changed</t>
+  </si>
+  <si>
+    <t>There’s no use crying over spilt milk let’s move on</t>
+  </si>
+  <si>
+    <t>Devil’s advocate</t>
+  </si>
+  <si>
+    <t>Present a counter-argument</t>
+  </si>
+  <si>
+    <t>I’ll play devil’s advocate here and say that it might not work</t>
+  </si>
+  <si>
+    <t>Drive someone up the wall</t>
+  </si>
+  <si>
+    <t>To irritate or annoy someone</t>
+  </si>
+  <si>
+    <t>His constant humming is driving me up the wall</t>
+  </si>
+  <si>
+    <t>Fit as a fiddle</t>
+  </si>
+  <si>
+    <t>In good health</t>
+  </si>
+  <si>
+    <t>She’s 80 years old but still fit as a fiddle</t>
+  </si>
+  <si>
+    <t>Go down in flames</t>
+  </si>
+  <si>
+    <t>To fail spectacularly</t>
+  </si>
+  <si>
+    <t>The project went down in flames when the funding was cut</t>
+  </si>
+  <si>
+    <t>Leave someone high and dry</t>
+  </si>
+  <si>
+    <t>Abandon someone in trouble</t>
+  </si>
+  <si>
+    <t>They left him high and dry when they pulled out of the deal</t>
+  </si>
+  <si>
+    <t>Pull the wool over someone’s eyes</t>
+  </si>
+  <si>
+    <t>Deceive someone</t>
+  </si>
+  <si>
+    <t>He tried to pull the wool over my eyes, but I saw through his lies</t>
+  </si>
+  <si>
+    <t>Raining cats and dogs</t>
+  </si>
+  <si>
+    <t>It's raining heavily</t>
+  </si>
+  <si>
+    <t>We can’t go out now, it's raining cats and dogs</t>
+  </si>
+  <si>
+    <t>Run out of steam</t>
+  </si>
+  <si>
+    <t>To lose energy or motivation</t>
+  </si>
+  <si>
+    <t>She ran out of steam halfway through the marathon</t>
+  </si>
+  <si>
+    <t>Take the bull by the horns</t>
+  </si>
+  <si>
+    <t>Face a challenge directly</t>
+  </si>
+  <si>
+    <t>He took the bull by the horns and confronted his boss about the issue</t>
+  </si>
+  <si>
+    <t>Taste of your own medicine</t>
+  </si>
+  <si>
+    <t>Experiencing the same bad treatment you’ve given others</t>
+  </si>
+  <si>
+    <t>After all his pranks, he finally got a taste of his own medicine</t>
+  </si>
+  <si>
+    <t>To make a long story short</t>
+  </si>
+  <si>
+    <t>Tell something briefly</t>
+  </si>
+  <si>
+    <t>To make a long story short, we missed the flight but caught the next one</t>
+  </si>
+  <si>
+    <t>Walking on eggshells</t>
+  </si>
+  <si>
+    <t>Trying hard not to upset someone</t>
+  </si>
+  <si>
+    <t>Ever since the argument, I’ve been walking on eggshells around her</t>
+  </si>
+  <si>
+    <t>Your guess is as good as mine</t>
+  </si>
+  <si>
+    <t>I don’t know either</t>
+  </si>
+  <si>
+    <t>I have no idea where he is your guess is as good as mine</t>
+  </si>
+  <si>
+    <t>Actions speak louder than words</t>
+  </si>
+  <si>
+    <t>He says he loves me, but actions speak louder than words</t>
+  </si>
+  <si>
+    <t>Break the bank</t>
+  </si>
+  <si>
+    <t>To cost too much</t>
+  </si>
+  <si>
+    <t>We want to go on vacation, but we don’t want to break the bank</t>
+  </si>
+  <si>
+    <t>Don’t judge a book by its cover</t>
+  </si>
+  <si>
+    <t>Don’t make judgments based on appearances</t>
+  </si>
+  <si>
+    <t>You should meet him before making a decision don’t judge a book by its cover</t>
+  </si>
+  <si>
+    <t>Fall on deaf ears</t>
+  </si>
+  <si>
+    <t>Be ignored</t>
+  </si>
+  <si>
+    <t>Her advice fell on deaf ears, and now they regret not listening to her</t>
+  </si>
+  <si>
+    <t>Get a taste of your own medicine</t>
+  </si>
+  <si>
+    <t>Receive the same treatment you gave others</t>
+  </si>
+  <si>
+    <t>After all his cheating, he finally got a taste of his own medicine</t>
+  </si>
+  <si>
+    <t>Get out of hand</t>
+  </si>
+  <si>
+    <t>Become difficult to control</t>
+  </si>
+  <si>
+    <t>The party got out of hand when too many people showed up</t>
+  </si>
+  <si>
+    <t>In the nick of time</t>
+  </si>
+  <si>
+    <t>Just in time</t>
+  </si>
+  <si>
+    <t>The firefighters arrived in the nick of time</t>
+  </si>
+  <si>
+    <t>Pull the plug</t>
+  </si>
+  <si>
+    <t>Put a stop to something</t>
+  </si>
+  <si>
+    <t>The company pulled the plug on the project after realizing it wouldn’t be profitable</t>
+  </si>
+  <si>
+    <t>Sit on the fence</t>
+  </si>
+  <si>
+    <t>Delay making a decision</t>
+  </si>
+  <si>
+    <t>He’s been sitting on the fence about whether to join the team or not</t>
+  </si>
+  <si>
+    <t>Through thick and thin</t>
+  </si>
+  <si>
+    <t>In good times and bad</t>
+  </si>
+  <si>
+    <t>They’ve been together through thick and thin for over 30 years</t>
+  </si>
+  <si>
+    <t>Turn a blind eye</t>
+  </si>
+  <si>
+    <t>Ignore something</t>
+  </si>
+  <si>
+    <t>The teacher turned a blind eye to the students’ prank</t>
+  </si>
+  <si>
+    <t>Up in arms</t>
+  </si>
+  <si>
+    <t>Very upset</t>
+  </si>
+  <si>
+    <t>The community was up in arms over the proposed changes to the park</t>
+  </si>
+  <si>
+    <t>Beating a dead horse</t>
+  </si>
+  <si>
+    <t>Wasting time on something that’s already decided</t>
+  </si>
+  <si>
+    <t>There’s no point beating a dead horse the decision has already been made</t>
+  </si>
+  <si>
+    <t>Go cold turkey</t>
+  </si>
+  <si>
+    <t>Quit something abruptly</t>
+  </si>
+  <si>
+    <t>He decided to go cold turkey and quit smoking completely</t>
+  </si>
+  <si>
+    <t>In hot water</t>
+  </si>
+  <si>
+    <t>In trouble</t>
+  </si>
+  <si>
+    <t>He found himself in hot water after missing the deadline</t>
+  </si>
+  <si>
+    <t>Let bygones be bygones</t>
+  </si>
+  <si>
+    <t>Forget past disagreements</t>
+  </si>
+  <si>
+    <t>They decided to let bygones be bygones and start fresh</t>
+  </si>
+  <si>
+    <t>On the ball</t>
+  </si>
+  <si>
+    <t>Alert and quick to react</t>
+  </si>
+  <si>
+    <t>She’s always on the ball and knows what’s going on in the company</t>
+  </si>
+  <si>
+    <t>The best of both worlds</t>
+  </si>
+  <si>
+    <t>An ideal situation</t>
+  </si>
+  <si>
+    <t>Working from home gives me the best of both worlds comfort and productivity</t>
+  </si>
+  <si>
+    <t>Bite the dust</t>
+  </si>
+  <si>
+    <t>To die or fail</t>
+  </si>
+  <si>
+    <t>The old computer finally bit the dust</t>
+  </si>
+  <si>
+    <t>Cry wolf</t>
+  </si>
+  <si>
+    <t>Raise a false alarm</t>
+  </si>
+  <si>
+    <t>He’s cried wolf so many times that no one believes him anymore</t>
+  </si>
+  <si>
+    <t>Easier said than done</t>
+  </si>
+  <si>
+    <t>More difficult than it sounds</t>
+  </si>
+  <si>
+    <t>Quitting your job and traveling the world is easier said than done</t>
+  </si>
+  <si>
+    <t>Get cold feet</t>
+  </si>
+  <si>
+    <t>Become nervous about something</t>
+  </si>
+  <si>
+    <t>She got cold feet right before the wedding and almost canceled</t>
+  </si>
+  <si>
+    <t>Hit the jackpot</t>
+  </si>
+  <si>
+    <t>Have great success or luck</t>
+  </si>
+  <si>
+    <t>He hit the jackpot when he landed that job</t>
+  </si>
+  <si>
+    <t>In a nutshell</t>
+  </si>
+  <si>
+    <t>In brief</t>
+  </si>
+  <si>
+    <t>In a nutshell, we need to work harder to meet the deadline</t>
+  </si>
+  <si>
+    <t>Start something too soon</t>
+  </si>
+  <si>
+    <t>They jumped the gun and launched the product before it was ready</t>
+  </si>
+  <si>
+    <t>Keep your chin up</t>
+  </si>
+  <si>
+    <t>Stay positive</t>
+  </si>
+  <si>
+    <t>Even though it’s tough, keep your chin up you’ll get through it</t>
+  </si>
+  <si>
+    <t>Let someone off the hook</t>
+  </si>
+  <si>
+    <t>Let someone avoid punishment</t>
+  </si>
+  <si>
+    <t>The teacher let him off the hook for not doing his homework this time</t>
+  </si>
+  <si>
+    <t>Make ends meet</t>
+  </si>
+  <si>
+    <t>To manage financially</t>
+  </si>
+  <si>
+    <t>It’s hard to make ends meet with the rising cost of living</t>
+  </si>
+  <si>
+    <t>Out of the blue</t>
+  </si>
+  <si>
+    <t>Unexpectedly</t>
+  </si>
+  <si>
+    <t>He showed up out of the blue after years of no contact</t>
+  </si>
+  <si>
+    <t>Ring a bell</t>
+  </si>
+  <si>
+    <t>Sound familiar</t>
+  </si>
+  <si>
+    <t>That name rings a bell, but I can’t place where I’ve heard it before</t>
+  </si>
+  <si>
+    <t>Snowball effect</t>
+  </si>
+  <si>
+    <t>A situation that grows rapidly in size or importance</t>
+  </si>
+  <si>
+    <t>The snowball effect of their marketing campaign led to a massive increase in sales</t>
+  </si>
+  <si>
+    <t>Take it with a pinch of salt</t>
+  </si>
+  <si>
+    <t>Be skeptical about something</t>
+  </si>
+  <si>
+    <t>You should take his promises with a pinch of salt he’s been unreliable before</t>
+  </si>
+  <si>
+    <t>The early bird catches the worm</t>
+  </si>
+  <si>
+    <t>The one who acts first has the best chance of success</t>
+  </si>
+  <si>
+    <t>You have to get to the store early the early bird catches the worm</t>
+  </si>
+  <si>
+    <t>A penny for your thoughts</t>
+  </si>
+  <si>
+    <t>Asking someone what they're thinking</t>
+  </si>
+  <si>
+    <t>You’ve been quiet penny for your thoughts</t>
+  </si>
+  <si>
+    <t>Add fuel to the fire</t>
+  </si>
+  <si>
+    <t>Make a situation worse</t>
+  </si>
+  <si>
+    <t>His comments only added fuel to the fire in the heated debate</t>
+  </si>
+  <si>
+    <t>At the drop of a hat</t>
+  </si>
+  <si>
+    <t>Immediately or without hesitation</t>
+  </si>
+  <si>
+    <t>She would leave her job at the drop of a hat if she found something better</t>
+  </si>
+  <si>
+    <t>Back to square one</t>
+  </si>
+  <si>
+    <t>Start again from the beginning</t>
+  </si>
+  <si>
+    <t>The plan didn’t work, so it’s back to square one</t>
+  </si>
+  <si>
+    <t>Bend over backwards</t>
+  </si>
+  <si>
+    <t>Do whatever it takes to help</t>
+  </si>
+  <si>
+    <t>She bent over backwards to make sure the guests were comfortable</t>
+  </si>
+  <si>
+    <t>Best of both worlds</t>
+  </si>
+  <si>
+    <t>Enjoy the advantages of two different things</t>
+  </si>
+  <si>
+    <t>Living in the city but working from home gives me the best of both worlds</t>
+  </si>
+  <si>
+    <t>Overwork yourself</t>
+  </si>
+  <si>
+    <t>He’s been burning the candle at both ends by working late and getting up early</t>
+  </si>
+  <si>
+    <t>Caught red handed</t>
+  </si>
+  <si>
+    <t>Caught in the act of doing something wrong</t>
+  </si>
+  <si>
+    <t>The thief was caught red-handed by the security camera</t>
+  </si>
+  <si>
+    <t>Don’t cry over spilled milk</t>
+  </si>
+  <si>
+    <t>Don’t waste time worrying about past mistakes</t>
+  </si>
+  <si>
+    <t>It’s done now don’t cry over spilled milk</t>
+  </si>
+  <si>
+    <t>Get a second wind</t>
+  </si>
+  <si>
+    <t>Have renewed energy after being tired</t>
+  </si>
+  <si>
+    <t>After resting for a bit, she got a second wind and finished the marathon</t>
+  </si>
+  <si>
+    <t>Go down the drain</t>
+  </si>
+  <si>
+    <t>Be wasted or lost</t>
+  </si>
+  <si>
+    <t>All that hard work went down the drain when the project was canceled</t>
+  </si>
+  <si>
+    <t>Start something with energy and enthusiasm</t>
+  </si>
+  <si>
+    <t>He hit the ground running in his new role as team leader</t>
+  </si>
+  <si>
+    <t>Follow a popular trend</t>
+  </si>
+  <si>
+    <t>Everyone’s jumping on the bandwagon and joining the new fitness class</t>
+  </si>
+  <si>
+    <t>Let the chips fall where they may</t>
+  </si>
+  <si>
+    <t>Let things happen as they will</t>
+  </si>
+  <si>
+    <t>I’ll make my decision and let the chips fall where they may</t>
+  </si>
+  <si>
+    <t>Make a long story short</t>
+  </si>
+  <si>
+    <t>To make a long story short, we won the game in overtime</t>
+  </si>
+  <si>
+    <t>Not playing with a full deck</t>
+  </si>
+  <si>
+    <t>Behaving oddly or irrationally</t>
+  </si>
+  <si>
+    <t>He’s not playing with a full deck his decisions don’t make any sense</t>
+  </si>
+  <si>
+    <t>Off the top of my head</t>
+  </si>
+  <si>
+    <t>Saying something without thinking it through</t>
+  </si>
+  <si>
+    <t>Off the top of my head, I’d say the answer is about 10</t>
+  </si>
+  <si>
+    <t>On the same page</t>
+  </si>
+  <si>
+    <t>In agreement or understanding</t>
+  </si>
+  <si>
+    <t>Let’s meet tomorrow to make sure we’re all on the same page</t>
+  </si>
+  <si>
+    <t>Out of the frying pan and into the fire</t>
+  </si>
+  <si>
+    <t>Moving from a bad situation to a worse one</t>
+  </si>
+  <si>
+    <t>By changing jobs, he went out of the frying pan and into the fire</t>
+  </si>
+  <si>
+    <t>Pulling your leg</t>
+  </si>
+  <si>
+    <t>Teasing or joking</t>
+  </si>
+  <si>
+    <t>I’m just pulling your leg I didn’t actually win the lottery</t>
+  </si>
+  <si>
+    <t>Put your best foot forward</t>
+  </si>
+  <si>
+    <t>Make a good first impression</t>
+  </si>
+  <si>
+    <t>In an interview, always put your best foot forward</t>
+  </si>
+  <si>
+    <t>Put your foot in your mouth</t>
+  </si>
+  <si>
+    <t>Say something embarrassing</t>
+  </si>
+  <si>
+    <t>I really put my foot in my mouth when I asked her about her ex-husband</t>
+  </si>
+  <si>
+    <t>Rain on your parade</t>
+  </si>
+  <si>
+    <t>To spoil someone’s plans</t>
+  </si>
+  <si>
+    <t>I hate to rain on your parade, but the event is canceled due to rain</t>
+  </si>
+  <si>
+    <t>Shoot from the hip</t>
+  </si>
+  <si>
+    <t>Speak directly without thinking</t>
+  </si>
+  <si>
+    <t>He tends to shoot from the hip during meetings, which can be risky</t>
+  </si>
+  <si>
+    <t>Spill the beans</t>
+  </si>
+  <si>
+    <t>He accidentally spilled the beans about the surprise party</t>
+  </si>
+  <si>
+    <t>It’s your decision or responsibility to act</t>
+  </si>
+  <si>
+    <t>I’ve done all I can the ball is in your court now</t>
+  </si>
+  <si>
+    <t>The whole nine yards</t>
+  </si>
+  <si>
+    <t>Do everything possible</t>
+  </si>
+  <si>
+    <t>We went the whole nine yards with the wedding preparations</t>
+  </si>
+  <si>
+    <t>To give up</t>
+  </si>
+  <si>
+    <t>After trying to fix the problem for hours, I threw in the towel</t>
+  </si>
+  <si>
+    <t>Time flies</t>
+  </si>
+  <si>
+    <t>Time passes quickly</t>
+  </si>
+  <si>
+    <t>Time flies when you’re having fun</t>
+  </si>
+  <si>
+    <t>Tooth and nail</t>
+  </si>
+  <si>
+    <t>With great effort or determination</t>
+  </si>
+  <si>
+    <t>They fought tooth and nail to keep their house</t>
+  </si>
+  <si>
+    <t>Feeling unwell</t>
+  </si>
+  <si>
+    <t>I’m feeling a bit under the weather today</t>
+  </si>
+  <si>
+    <t>When pigs fly</t>
+  </si>
+  <si>
+    <t>Something that will never happen</t>
+  </si>
+  <si>
+    <t>I’ll clean my room when pigs fly</t>
+  </si>
+  <si>
+    <t>Wild goose chase</t>
+  </si>
+  <si>
+    <t>A futile or hopeless search</t>
+  </si>
+  <si>
+    <t>The whole day was a wild goose chase we never found the document</t>
+  </si>
+  <si>
+    <t>I have no idea</t>
+  </si>
+  <si>
+    <t>Where’s the boss Your guess is as good as mine</t>
+  </si>
+  <si>
+    <t>Zip your lip</t>
+  </si>
+  <si>
+    <t>Stay quiet</t>
+  </si>
+  <si>
+    <t>Zip your lip we’re supposed to keep this a secret</t>
+  </si>
+  <si>
+    <t>Hit the road</t>
+  </si>
+  <si>
+    <t>To leave</t>
+  </si>
+  <si>
+    <t>It’s time to hit the road if we want to avoid traffic</t>
+  </si>
+  <si>
+    <t>Pulling out all the stops</t>
+  </si>
+  <si>
+    <t>Doing everything possible to achieve a result</t>
+  </si>
+  <si>
+    <t>She pulled out all the stops to make the presentation perfect</t>
+  </si>
+  <si>
+    <t>Get the show on the road</t>
+  </si>
+  <si>
+    <t>To start something</t>
+  </si>
+  <si>
+    <t>Let’s get the show on the road before we run out of time</t>
+  </si>
+  <si>
+    <t>Burning the midnight oil</t>
+  </si>
+  <si>
+    <t>Staying up late to work or study</t>
+  </si>
+  <si>
+    <t>He’s been burning the midnight oil to prepare for his exam</t>
+  </si>
+  <si>
+    <t>Acting without thinking due to emotion</t>
+  </si>
+  <si>
+    <t>She said those things in the heat of the moment</t>
+  </si>
+  <si>
+    <t>Play it by ear</t>
+  </si>
+  <si>
+    <t>To improvise</t>
+  </si>
+  <si>
+    <t>Let’s see how the day goes and play it by ear</t>
+  </si>
+  <si>
+    <t>A penny saved is a penny earned</t>
+  </si>
+  <si>
+    <t>Saving money is just as important as earning it</t>
+  </si>
+  <si>
+    <t>You should put that money in savings a penny saved is a penny earned</t>
+  </si>
+  <si>
+    <t>Stay with someone through good and bad times</t>
+  </si>
+  <si>
+    <t>She’s been by his side through thick and thin</t>
+  </si>
+  <si>
+    <t>He cried wolf so many times that no one believed him anymore</t>
+  </si>
+  <si>
+    <t>Back to the drawing board</t>
+  </si>
+  <si>
+    <t>Start something over again</t>
+  </si>
+  <si>
+    <t>After the failure of the plan, it’s back to the drawing board</t>
+  </si>
+  <si>
+    <t>To be in hot water</t>
+  </si>
+  <si>
+    <t>Be in trouble</t>
+  </si>
+  <si>
+    <t>He’s in hot water for missing the deadline</t>
+  </si>
+  <si>
+    <t>Say exactly the right thing</t>
+  </si>
+  <si>
+    <t>She hit the nail on the head with her solution to the problem</t>
+  </si>
+  <si>
+    <t>Elephant in the room</t>
+  </si>
+  <si>
+    <t>A big issue that everyone is ignoring</t>
+  </si>
+  <si>
+    <t>The fact that no one is talking about the budget cuts is the elephant in the room</t>
+  </si>
+  <si>
+    <t>Beat a dead horse</t>
+  </si>
+  <si>
+    <t>Discuss something repeatedly that has already been resolved</t>
+  </si>
+  <si>
+    <t>Let’s not beat a dead horsewe’ve already decided</t>
+  </si>
+  <si>
+    <t>Raining heavily</t>
+  </si>
+  <si>
+    <t>It’s raining cats and dogs outside, so bring an umbrella</t>
+  </si>
+  <si>
+    <t>Walking on thin ice</t>
+  </si>
+  <si>
+    <t>Being in a risky situation</t>
+  </si>
+  <si>
+    <t>He’s walking on thin ice by coming in late every day</t>
+  </si>
+  <si>
+    <t>Take the plunge</t>
+  </si>
+  <si>
+    <t>To take a risk or make a big decision</t>
+  </si>
+  <si>
+    <t>They finally took the plunge and got married</t>
+  </si>
+  <si>
+    <t>Go out on a limb</t>
+  </si>
+  <si>
+    <t>She went out on a limb by recommending him for the job</t>
+  </si>
+  <si>
+    <t>A shot in the dark</t>
+  </si>
+  <si>
+    <t>A guess or assumption without much information</t>
+  </si>
+  <si>
+    <t>He took a shot in the dark when he guessed the answer</t>
+  </si>
+  <si>
+    <t>Out of sight</t>
+  </si>
+  <si>
+    <t>out of mind</t>
+  </si>
+  <si>
+    <t>Forgotten when absent, Ever since she moved away, it’s been out of sight</t>
+  </si>
+  <si>
+    <t>Money doesn’t grow on trees</t>
+  </si>
+  <si>
+    <t>Money is hard to earn</t>
+  </si>
+  <si>
+    <t>Be careful with your spending money doesn’t grow on trees</t>
+  </si>
+  <si>
+    <t>Time is money</t>
+  </si>
+  <si>
+    <t>Time is valuable</t>
+  </si>
+  <si>
+    <t>so don’t waste it, Let’s get to work time is money</t>
+  </si>
+  <si>
+    <t>Cross that bridge when you come to it</t>
+  </si>
+  <si>
+    <t>Deal with a problem when it arises</t>
+  </si>
+  <si>
+    <t>We’ll cross that bridge when we come to it there’s no point in worrying now</t>
+  </si>
+  <si>
+    <t>Pursuing the wrong course of action</t>
+  </si>
+  <si>
+    <t>If you think I’m responsible, you’re barking up the wrong tree</t>
+  </si>
+  <si>
+    <t>The calm before the storm</t>
+  </si>
+  <si>
+    <t>A peaceful time before something chaotic happens</t>
+  </si>
+  <si>
+    <t>Enjoy the calm before the storm things will get busy once the project starts</t>
+  </si>
+  <si>
+    <t>Water under the bridge</t>
+  </si>
+  <si>
+    <t>Something that’s in the past and no longer important</t>
+  </si>
+  <si>
+    <t>That argument is water under the bridge now</t>
+  </si>
+  <si>
+    <t>Jump through hoops</t>
+  </si>
+  <si>
+    <t>Do a lot of difficult things to achieve something</t>
+  </si>
+  <si>
+    <t>We had to jump through hoops to get the visa approved</t>
+  </si>
+  <si>
+    <t>He talks about helping people, but his actions speak louder than words</t>
+  </si>
+  <si>
+    <t>Birds of a feather flock together</t>
+  </si>
+  <si>
+    <t>People who are similar spend time together</t>
+  </si>
+  <si>
+    <t>Those two are always together birds of a feather flock together</t>
+  </si>
+  <si>
+    <t>Don’t judge someone or something by appearances</t>
+  </si>
+  <si>
+    <t>You shouldn’t judge him by his quiet demeanor he’s very talented</t>
+  </si>
+  <si>
+    <t>Face the music</t>
+  </si>
+  <si>
+    <t>Accept the consequences</t>
+  </si>
+  <si>
+    <t>It’s time to face the music for what you did wrong</t>
+  </si>
+  <si>
+    <t>Be treated the way you treat others</t>
+  </si>
+  <si>
+    <t>He was always rude to his coworkers, but now he’s getting a taste of his own medicine</t>
+  </si>
+  <si>
+    <t>Hold your horses</t>
+  </si>
+  <si>
+    <t>Wait or slow down</t>
+  </si>
+  <si>
+    <t>Hold your horses Let’s think this through before we make a decision</t>
+  </si>
+  <si>
+    <t>Ignorance is bliss</t>
+  </si>
+  <si>
+    <t>Not knowing something is often more comfortable</t>
+  </si>
+  <si>
+    <t>Sometimes ignorance is bliss I’d rather not know all the details</t>
+  </si>
+  <si>
+    <t>Like father, like son</t>
+  </si>
+  <si>
+    <t>Children often resemble their parents in behavior</t>
+  </si>
+  <si>
+    <t>He’s just like his dad like father, like son</t>
+  </si>
+  <si>
+    <t>Look before you leap</t>
+  </si>
+  <si>
+    <t>Consider the consequences before taking action</t>
+  </si>
+  <si>
+    <t>Look before you leap this is a big decision</t>
+  </si>
+  <si>
+    <t>Many hands make light work</t>
+  </si>
+  <si>
+    <t>When people work together</t>
+  </si>
+  <si>
+    <t>the job gets done more easily, With everyone helping, we finished the task quickly many hands make light work</t>
+  </si>
+  <si>
+    <t>Necessity is the mother of invention</t>
+  </si>
+  <si>
+    <t>Difficult situations inspire innovative solutions</t>
+  </si>
+  <si>
+    <t>The power outage forced us to get creative necessity is the mother of invention</t>
+  </si>
+  <si>
+    <t>You have to work hard to achieve results</t>
+  </si>
+  <si>
+    <t>If you want to get in shape, remember no pain, no gain</t>
+  </si>
+  <si>
+    <t>Rome wasn’t built in a day</t>
+  </si>
+  <si>
+    <t>Great things take time</t>
+  </si>
+  <si>
+    <t>Be patient Rome wasn’t built in a day</t>
+  </si>
+  <si>
+    <t>Seeing is believing</t>
+  </si>
+  <si>
+    <t>You have to see something to believe it</t>
+  </si>
+  <si>
+    <t>I didn’t think it was possible, but seeing is believing</t>
+  </si>
+  <si>
+    <t>The grass is always greener on the other side</t>
+  </si>
+  <si>
+    <t>People think others have it better</t>
+  </si>
+  <si>
+    <t>She’s always wishing for a different life the grass is always greener on the other side</t>
+  </si>
+  <si>
+    <t>The pot calling the kettle black</t>
+  </si>
+  <si>
+    <t>Criticizing someone for a fault you have too</t>
+  </si>
+  <si>
+    <t>He called her lazy, which is the pot calling the kettle black</t>
+  </si>
+  <si>
+    <t>Two heads are better than one</t>
+  </si>
+  <si>
+    <t>Collaboration leads to better results</t>
+  </si>
+  <si>
+    <t>Let’s work together two heads are better than one</t>
   </si>
 </sst>
 </file>
@@ -1969,13 +3073,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="39.8703703703704" customWidth="1"/>
     <col min="3" max="3" width="74.3333333333333" customWidth="1"/>
@@ -1983,29 +3087,35 @@
     <col min="5" max="5" width="36.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2016,1365 +3126,4078 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
+      <c r="B14">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
+      <c r="B15">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
+      <c r="B16">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
+      <c r="B17">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>69</v>
+      <c r="B18">
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
+      <c r="B19">
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>77</v>
+      <c r="B20">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>81</v>
+      <c r="B21">
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>85</v>
+      <c r="B22">
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>89</v>
+      <c r="B23">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>93</v>
+      <c r="B24">
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>97</v>
+      <c r="B25">
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>101</v>
+      <c r="B26">
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>105</v>
+      <c r="B27">
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>109</v>
+      <c r="B28">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>113</v>
+      <c r="B29">
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>117</v>
+      <c r="B30">
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>121</v>
+      <c r="B31">
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>125</v>
+      <c r="B32">
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>129</v>
+      <c r="B33">
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>133</v>
+      <c r="B34">
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>137</v>
+      <c r="B35">
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>141</v>
+      <c r="B36">
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>145</v>
+      <c r="B37">
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>149</v>
+      <c r="B38">
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>153</v>
+      <c r="B39">
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>157</v>
+      <c r="B40">
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>161</v>
+      <c r="B41">
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>165</v>
+      <c r="B42">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>169</v>
+      <c r="B43">
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>173</v>
+      </c>
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>173</v>
+      <c r="B44">
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>177</v>
+      </c>
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>177</v>
+      <c r="B45">
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="F45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>181</v>
+      <c r="B46">
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>185</v>
+      <c r="B47">
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>189</v>
+      <c r="B48">
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="F48" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>193</v>
+      <c r="B49">
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>197</v>
+      <c r="B50">
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="F50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>201</v>
+      <c r="B51">
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>205</v>
+      </c>
+      <c r="F51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>205</v>
+      <c r="B52">
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F52" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>209</v>
+      <c r="B53">
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>213</v>
+      <c r="B54">
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>217</v>
+      <c r="B55">
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>221</v>
+      </c>
+      <c r="F55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>221</v>
+      <c r="B56">
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>225</v>
+      </c>
+      <c r="F56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>225</v>
+      <c r="B57">
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>229</v>
+      </c>
+      <c r="F57" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>229</v>
+      <c r="B58">
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>233</v>
+      <c r="B59">
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>237</v>
+      <c r="B60">
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="F60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>241</v>
+      <c r="B61">
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>245</v>
+      </c>
+      <c r="F61" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>245</v>
+      <c r="B62">
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="F62" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>249</v>
+      <c r="B63">
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="F63" t="s">
+        <v>254</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>253</v>
+      <c r="B64">
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E64" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F64" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>257</v>
+      <c r="B65">
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F65" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>261</v>
+      <c r="B66">
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F66" t="s">
+        <v>266</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>265</v>
+      <c r="B67">
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>269</v>
+      </c>
+      <c r="F67" t="s">
+        <v>270</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>13</v>
+      <c r="B68">
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="F68" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>272</v>
+      <c r="B69">
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>276</v>
+      </c>
+      <c r="F69" t="s">
+        <v>277</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>141</v>
+      <c r="B70">
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>279</v>
+      <c r="B71">
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>283</v>
+      <c r="B72">
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E72" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>287</v>
+      <c r="B73">
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="F73" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>291</v>
+      <c r="B74">
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F74" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>295</v>
+      <c r="B75">
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="F75" t="s">
+        <v>300</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>299</v>
+      <c r="B76">
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>303</v>
+      </c>
+      <c r="F76" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>303</v>
+      <c r="B77">
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F77" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>307</v>
+      <c r="B78">
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>311</v>
+      </c>
+      <c r="F78" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>311</v>
+      <c r="B79">
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>315</v>
+      </c>
+      <c r="F79" t="s">
+        <v>316</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>315</v>
+      <c r="B80">
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>319</v>
+      <c r="B81">
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="F81" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>323</v>
+      <c r="B82">
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E82" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="F82" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" t="s">
+        <v>331</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>333</v>
+      </c>
+      <c r="E84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>335</v>
+      </c>
+      <c r="D85" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" t="s">
+        <v>337</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" t="s">
+        <v>339</v>
+      </c>
+      <c r="E86" t="s">
+        <v>340</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87" t="s">
+        <v>343</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" t="s">
+        <v>345</v>
+      </c>
+      <c r="E88" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" t="s">
+        <v>348</v>
+      </c>
+      <c r="E89" t="s">
+        <v>349</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" t="s">
+        <v>352</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" t="s">
+        <v>354</v>
+      </c>
+      <c r="E91" t="s">
+        <v>355</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>356</v>
+      </c>
+      <c r="D92" t="s">
+        <v>357</v>
+      </c>
+      <c r="E92" t="s">
+        <v>358</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" t="s">
+        <v>360</v>
+      </c>
+      <c r="E93" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" t="s">
+        <v>363</v>
+      </c>
+      <c r="E94" t="s">
+        <v>364</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>365</v>
+      </c>
+      <c r="D95" t="s">
+        <v>366</v>
+      </c>
+      <c r="E95" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" t="s">
+        <v>370</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" t="s">
+        <v>372</v>
+      </c>
+      <c r="E97" t="s">
+        <v>373</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>374</v>
+      </c>
+      <c r="D98" t="s">
+        <v>375</v>
+      </c>
+      <c r="E98" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>377</v>
+      </c>
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>380</v>
+      </c>
+      <c r="D100" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" t="s">
+        <v>382</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" t="s">
+        <v>252</v>
+      </c>
+      <c r="E101" t="s">
+        <v>384</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" t="s">
+        <v>387</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>388</v>
+      </c>
+      <c r="D103" t="s">
+        <v>389</v>
+      </c>
+      <c r="E103" t="s">
+        <v>390</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" t="s">
+        <v>392</v>
+      </c>
+      <c r="E104" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" t="s">
+        <v>395</v>
+      </c>
+      <c r="E105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>397</v>
+      </c>
+      <c r="D106" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" t="s">
+        <v>399</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" t="s">
+        <v>401</v>
+      </c>
+      <c r="E107" t="s">
+        <v>402</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>403</v>
+      </c>
+      <c r="D108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" t="s">
+        <v>405</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>406</v>
+      </c>
+      <c r="D109" t="s">
+        <v>407</v>
+      </c>
+      <c r="E109" t="s">
+        <v>408</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>409</v>
+      </c>
+      <c r="D110" t="s">
+        <v>410</v>
+      </c>
+      <c r="E110" t="s">
+        <v>411</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" t="s">
+        <v>413</v>
+      </c>
+      <c r="E111" t="s">
+        <v>414</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" t="s">
+        <v>416</v>
+      </c>
+      <c r="E112" t="s">
+        <v>417</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>418</v>
+      </c>
+      <c r="D113" t="s">
+        <v>419</v>
+      </c>
+      <c r="E113" t="s">
+        <v>420</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>421</v>
+      </c>
+      <c r="D114" t="s">
+        <v>422</v>
+      </c>
+      <c r="E114" t="s">
+        <v>423</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>424</v>
+      </c>
+      <c r="D115" t="s">
+        <v>425</v>
+      </c>
+      <c r="E115" t="s">
+        <v>426</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>427</v>
+      </c>
+      <c r="D116" t="s">
+        <v>428</v>
+      </c>
+      <c r="E116" t="s">
+        <v>429</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" t="s">
+        <v>431</v>
+      </c>
+      <c r="E117" t="s">
+        <v>432</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>433</v>
+      </c>
+      <c r="D118" t="s">
+        <v>434</v>
+      </c>
+      <c r="E118" t="s">
+        <v>435</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>436</v>
+      </c>
+      <c r="D119" t="s">
+        <v>437</v>
+      </c>
+      <c r="E119" t="s">
+        <v>438</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>439</v>
+      </c>
+      <c r="D120" t="s">
+        <v>440</v>
+      </c>
+      <c r="E120" t="s">
+        <v>441</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>442</v>
+      </c>
+      <c r="D121" t="s">
+        <v>443</v>
+      </c>
+      <c r="E121" t="s">
+        <v>444</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>445</v>
+      </c>
+      <c r="D122" t="s">
+        <v>446</v>
+      </c>
+      <c r="E122" t="s">
+        <v>447</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>448</v>
+      </c>
+      <c r="D123" t="s">
+        <v>449</v>
+      </c>
+      <c r="E123" t="s">
+        <v>450</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>451</v>
+      </c>
+      <c r="D124" t="s">
+        <v>452</v>
+      </c>
+      <c r="E124" t="s">
+        <v>453</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" t="s">
+        <v>454</v>
+      </c>
+      <c r="E125" t="s">
+        <v>455</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>456</v>
+      </c>
+      <c r="D126" t="s">
+        <v>457</v>
+      </c>
+      <c r="E126" t="s">
+        <v>458</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>459</v>
+      </c>
+      <c r="D127" t="s">
+        <v>460</v>
+      </c>
+      <c r="E127" t="s">
+        <v>461</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>462</v>
+      </c>
+      <c r="D128" t="s">
+        <v>463</v>
+      </c>
+      <c r="E128" t="s">
+        <v>464</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>465</v>
+      </c>
+      <c r="D129" t="s">
+        <v>466</v>
+      </c>
+      <c r="E129" t="s">
+        <v>467</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>468</v>
+      </c>
+      <c r="D130" t="s">
+        <v>469</v>
+      </c>
+      <c r="E130" t="s">
+        <v>470</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>471</v>
+      </c>
+      <c r="D131" t="s">
+        <v>472</v>
+      </c>
+      <c r="E131" t="s">
+        <v>473</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>474</v>
+      </c>
+      <c r="D132" t="s">
+        <v>475</v>
+      </c>
+      <c r="E132" t="s">
+        <v>476</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>477</v>
+      </c>
+      <c r="D133" t="s">
+        <v>478</v>
+      </c>
+      <c r="E133" t="s">
+        <v>479</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>480</v>
+      </c>
+      <c r="D134" t="s">
+        <v>481</v>
+      </c>
+      <c r="E134" t="s">
+        <v>482</v>
+      </c>
+      <c r="G134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>483</v>
+      </c>
+      <c r="D135" t="s">
+        <v>484</v>
+      </c>
+      <c r="E135" t="s">
+        <v>485</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>486</v>
+      </c>
+      <c r="D136" t="s">
+        <v>487</v>
+      </c>
+      <c r="E136" t="s">
+        <v>488</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>489</v>
+      </c>
+      <c r="D137" t="s">
+        <v>490</v>
+      </c>
+      <c r="E137" t="s">
+        <v>491</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>492</v>
+      </c>
+      <c r="D138" t="s">
+        <v>493</v>
+      </c>
+      <c r="E138" t="s">
+        <v>494</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>495</v>
+      </c>
+      <c r="D139" t="s">
+        <v>496</v>
+      </c>
+      <c r="E139" t="s">
+        <v>497</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>243</v>
+      </c>
+      <c r="D140" t="s">
+        <v>498</v>
+      </c>
+      <c r="E140" t="s">
+        <v>499</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>500</v>
+      </c>
+      <c r="D141" t="s">
+        <v>501</v>
+      </c>
+      <c r="E141" t="s">
+        <v>502</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>503</v>
+      </c>
+      <c r="D142" t="s">
+        <v>504</v>
+      </c>
+      <c r="E142" t="s">
+        <v>505</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>506</v>
+      </c>
+      <c r="D143" t="s">
+        <v>507</v>
+      </c>
+      <c r="E143" t="s">
+        <v>508</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>509</v>
+      </c>
+      <c r="D144" t="s">
+        <v>510</v>
+      </c>
+      <c r="E144" t="s">
+        <v>511</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" t="s">
+        <v>512</v>
+      </c>
+      <c r="E145" t="s">
+        <v>513</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" t="s">
+        <v>514</v>
+      </c>
+      <c r="E146" t="s">
+        <v>515</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" t="s">
+        <v>517</v>
+      </c>
+      <c r="E147" t="s">
+        <v>518</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>519</v>
+      </c>
+      <c r="D148" t="s">
+        <v>375</v>
+      </c>
+      <c r="E148" t="s">
+        <v>520</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>521</v>
+      </c>
+      <c r="D149" t="s">
+        <v>522</v>
+      </c>
+      <c r="E149" t="s">
+        <v>523</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>524</v>
+      </c>
+      <c r="D150" t="s">
+        <v>525</v>
+      </c>
+      <c r="E150" t="s">
+        <v>526</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>527</v>
+      </c>
+      <c r="D151" t="s">
+        <v>528</v>
+      </c>
+      <c r="E151" t="s">
+        <v>529</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>530</v>
+      </c>
+      <c r="D152" t="s">
+        <v>531</v>
+      </c>
+      <c r="E152" t="s">
+        <v>532</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>533</v>
+      </c>
+      <c r="D153" t="s">
+        <v>534</v>
+      </c>
+      <c r="E153" t="s">
+        <v>535</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>536</v>
+      </c>
+      <c r="D154" t="s">
+        <v>537</v>
+      </c>
+      <c r="E154" t="s">
+        <v>538</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>539</v>
+      </c>
+      <c r="D155" t="s">
+        <v>540</v>
+      </c>
+      <c r="E155" t="s">
+        <v>541</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>542</v>
+      </c>
+      <c r="D156" t="s">
+        <v>543</v>
+      </c>
+      <c r="E156" t="s">
+        <v>544</v>
+      </c>
+      <c r="G156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>545</v>
+      </c>
+      <c r="D157" t="s">
+        <v>546</v>
+      </c>
+      <c r="E157" t="s">
+        <v>547</v>
+      </c>
+      <c r="G157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>548</v>
+      </c>
+      <c r="D158" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" t="s">
+        <v>549</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" t="s">
+        <v>550</v>
+      </c>
+      <c r="E159" t="s">
+        <v>551</v>
+      </c>
+      <c r="G159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>552</v>
+      </c>
+      <c r="D160" t="s">
+        <v>553</v>
+      </c>
+      <c r="E160" t="s">
+        <v>554</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>111</v>
+      </c>
+      <c r="D161" t="s">
+        <v>555</v>
+      </c>
+      <c r="E161" t="s">
+        <v>556</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>557</v>
+      </c>
+      <c r="D162" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" t="s">
+        <v>559</v>
+      </c>
+      <c r="G162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>560</v>
+      </c>
+      <c r="D163" t="s">
+        <v>561</v>
+      </c>
+      <c r="E163" t="s">
+        <v>562</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" t="s">
+        <v>564</v>
+      </c>
+      <c r="G164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>565</v>
+      </c>
+      <c r="D165" t="s">
+        <v>566</v>
+      </c>
+      <c r="E165" t="s">
+        <v>567</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>568</v>
+      </c>
+      <c r="D166" t="s">
+        <v>569</v>
+      </c>
+      <c r="E166" t="s">
+        <v>570</v>
+      </c>
+      <c r="G166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>380</v>
+      </c>
+      <c r="D167" t="s">
+        <v>571</v>
+      </c>
+      <c r="E167" t="s">
+        <v>572</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>573</v>
+      </c>
+      <c r="D168" t="s">
+        <v>574</v>
+      </c>
+      <c r="E168" t="s">
+        <v>575</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>576</v>
+      </c>
+      <c r="D169" t="s">
+        <v>577</v>
+      </c>
+      <c r="E169" t="s">
+        <v>578</v>
+      </c>
+      <c r="G169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>579</v>
+      </c>
+      <c r="D170" t="s">
+        <v>580</v>
+      </c>
+      <c r="E170" t="s">
+        <v>581</v>
+      </c>
+      <c r="G170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>582</v>
+      </c>
+      <c r="D171" t="s">
+        <v>583</v>
+      </c>
+      <c r="E171" t="s">
+        <v>584</v>
+      </c>
+      <c r="G171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>585</v>
+      </c>
+      <c r="D172" t="s">
+        <v>586</v>
+      </c>
+      <c r="E172" t="s">
+        <v>587</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" t="s">
+        <v>588</v>
+      </c>
+      <c r="E173" t="s">
+        <v>589</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>590</v>
+      </c>
+      <c r="D174" t="s">
+        <v>591</v>
+      </c>
+      <c r="E174" t="s">
+        <v>592</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>593</v>
+      </c>
+      <c r="D175" t="s">
+        <v>594</v>
+      </c>
+      <c r="E175" t="s">
+        <v>595</v>
+      </c>
+      <c r="G175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>409</v>
+      </c>
+      <c r="D176" t="s">
+        <v>596</v>
+      </c>
+      <c r="E176" t="s">
+        <v>597</v>
+      </c>
+      <c r="G176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>439</v>
+      </c>
+      <c r="D177" t="s">
+        <v>440</v>
+      </c>
+      <c r="E177" t="s">
+        <v>598</v>
+      </c>
+      <c r="G177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>599</v>
+      </c>
+      <c r="D178" t="s">
+        <v>600</v>
+      </c>
+      <c r="E178" t="s">
+        <v>601</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>602</v>
+      </c>
+      <c r="D179" t="s">
+        <v>603</v>
+      </c>
+      <c r="E179" t="s">
+        <v>604</v>
+      </c>
+      <c r="G179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>605</v>
+      </c>
+      <c r="E180" t="s">
+        <v>606</v>
+      </c>
+      <c r="G180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>607</v>
+      </c>
+      <c r="D181" t="s">
+        <v>608</v>
+      </c>
+      <c r="E181" t="s">
+        <v>609</v>
+      </c>
+      <c r="G181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>610</v>
+      </c>
+      <c r="D182" t="s">
+        <v>611</v>
+      </c>
+      <c r="E182" t="s">
+        <v>612</v>
+      </c>
+      <c r="G182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>362</v>
+      </c>
+      <c r="D183" t="s">
+        <v>613</v>
+      </c>
+      <c r="E183" t="s">
+        <v>614</v>
+      </c>
+      <c r="G183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>615</v>
+      </c>
+      <c r="D184" t="s">
+        <v>616</v>
+      </c>
+      <c r="E184" t="s">
+        <v>617</v>
+      </c>
+      <c r="G184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>618</v>
+      </c>
+      <c r="D185" t="s">
+        <v>619</v>
+      </c>
+      <c r="E185" t="s">
+        <v>620</v>
+      </c>
+      <c r="G185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>621</v>
+      </c>
+      <c r="D186" t="s">
+        <v>330</v>
+      </c>
+      <c r="E186" t="s">
+        <v>622</v>
+      </c>
+      <c r="G186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>83</v>
+      </c>
+      <c r="D187" t="s">
+        <v>84</v>
+      </c>
+      <c r="E187" t="s">
+        <v>85</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>623</v>
+      </c>
+      <c r="D188" t="s">
+        <v>624</v>
+      </c>
+      <c r="E188" t="s">
+        <v>625</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>626</v>
+      </c>
+      <c r="D189" t="s">
+        <v>627</v>
+      </c>
+      <c r="E189" t="s">
+        <v>628</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>629</v>
+      </c>
+      <c r="D190" t="s">
+        <v>630</v>
+      </c>
+      <c r="E190" t="s">
+        <v>631</v>
+      </c>
+      <c r="G190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>632</v>
+      </c>
+      <c r="D191" t="s">
+        <v>633</v>
+      </c>
+      <c r="E191" t="s">
+        <v>634</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>635</v>
+      </c>
+      <c r="D192" t="s">
+        <v>636</v>
+      </c>
+      <c r="E192" t="s">
+        <v>637</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>159</v>
+      </c>
+      <c r="D193" t="s">
+        <v>638</v>
+      </c>
+      <c r="E193" t="s">
+        <v>639</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>640</v>
+      </c>
+      <c r="D194" t="s">
+        <v>641</v>
+      </c>
+      <c r="E194" t="s">
+        <v>642</v>
+      </c>
+      <c r="G194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>643</v>
+      </c>
+      <c r="D195" t="s">
+        <v>644</v>
+      </c>
+      <c r="E195" t="s">
+        <v>645</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>646</v>
+      </c>
+      <c r="D196" t="s">
+        <v>647</v>
+      </c>
+      <c r="E196" t="s">
+        <v>648</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>383</v>
+      </c>
+      <c r="D197" t="s">
+        <v>252</v>
+      </c>
+      <c r="E197" t="s">
+        <v>649</v>
+      </c>
+      <c r="G197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>650</v>
+      </c>
+      <c r="D198" t="s">
+        <v>651</v>
+      </c>
+      <c r="E198" t="s">
+        <v>652</v>
+      </c>
+      <c r="G198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199" t="s">
+        <v>653</v>
+      </c>
+      <c r="E199" t="s">
+        <v>654</v>
+      </c>
+      <c r="G199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="s">
+        <v>655</v>
+      </c>
+      <c r="D200" t="s">
+        <v>656</v>
+      </c>
+      <c r="E200" t="s">
+        <v>657</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="s">
+        <v>394</v>
+      </c>
+      <c r="D201" t="s">
+        <v>658</v>
+      </c>
+      <c r="E201" t="s">
+        <v>659</v>
+      </c>
+      <c r="G201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="s">
+        <v>660</v>
+      </c>
+      <c r="D202" t="s">
+        <v>661</v>
+      </c>
+      <c r="E202" t="s">
+        <v>662</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="s">
+        <v>663</v>
+      </c>
+      <c r="D203" t="s">
+        <v>664</v>
+      </c>
+      <c r="E203" t="s">
+        <v>665</v>
+      </c>
+      <c r="G203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="s">
+        <v>666</v>
+      </c>
+      <c r="D204" t="s">
+        <v>667</v>
+      </c>
+      <c r="E204" t="s">
+        <v>668</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>669</v>
+      </c>
+      <c r="D205" t="s">
+        <v>670</v>
+      </c>
+      <c r="E205" t="s">
+        <v>671</v>
+      </c>
+      <c r="G205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="s">
+        <v>672</v>
+      </c>
+      <c r="D206" t="s">
+        <v>673</v>
+      </c>
+      <c r="E206" t="s">
+        <v>674</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>675</v>
+      </c>
+      <c r="D207" t="s">
+        <v>676</v>
+      </c>
+      <c r="E207" t="s">
+        <v>677</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>191</v>
+      </c>
+      <c r="D208" t="s">
+        <v>678</v>
+      </c>
+      <c r="E208" t="s">
+        <v>679</v>
+      </c>
+      <c r="G208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>680</v>
+      </c>
+      <c r="D209" t="s">
+        <v>681</v>
+      </c>
+      <c r="E209" t="s">
+        <v>682</v>
+      </c>
+      <c r="G209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
+        <v>683</v>
+      </c>
+      <c r="D210" t="s">
+        <v>684</v>
+      </c>
+      <c r="E210" t="s">
+        <v>685</v>
+      </c>
+      <c r="G210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="s">
+        <v>686</v>
+      </c>
+      <c r="D211" t="s">
+        <v>687</v>
+      </c>
+      <c r="E211" t="s">
+        <v>688</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>689</v>
+      </c>
+      <c r="D212" t="s">
+        <v>690</v>
+      </c>
+      <c r="E212" t="s">
+        <v>691</v>
+      </c>
+      <c r="G212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>692</v>
+      </c>
+      <c r="D213" t="s">
+        <v>693</v>
+      </c>
+      <c r="E213" t="s">
+        <v>694</v>
+      </c>
+      <c r="G213" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/idioms_data.xlsx
+++ b/idioms_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="695">
   <si>
     <t>srno</t>
   </si>
@@ -3073,4130 +3073,3884 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="39.8703703703704" customWidth="1"/>
-    <col min="3" max="3" width="74.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="93.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="36.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="39.8703703703704" customWidth="1"/>
+    <col min="2" max="2" width="74.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="93.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="B14" t="s">
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="B15" t="s">
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>15</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" t="s">
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>21</v>
+      <c r="B22" t="s">
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" t="s">
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>25</v>
+      <c r="B26" t="s">
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>26</v>
+      <c r="B27" t="s">
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" t="s">
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>28</v>
+      <c r="B29" t="s">
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>29</v>
+      <c r="B30" t="s">
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>30</v>
+      <c r="B31" t="s">
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>31</v>
+      <c r="B32" t="s">
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>32</v>
+      <c r="B33" t="s">
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>33</v>
+      <c r="B34" t="s">
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>34</v>
+      <c r="B35" t="s">
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>35</v>
+      <c r="B36" t="s">
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>36</v>
+      <c r="B37" t="s">
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>37</v>
+      <c r="B38" t="s">
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>38</v>
+      <c r="B39" t="s">
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>39</v>
+      <c r="B40" t="s">
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>40</v>
+      <c r="B41" t="s">
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>41</v>
+      <c r="B42" t="s">
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>43</v>
+      <c r="B44" t="s">
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>45</v>
+      <c r="B46" t="s">
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>186</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>46</v>
+      <c r="B47" t="s">
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>47</v>
+      <c r="B48" t="s">
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>48</v>
+      <c r="B49" t="s">
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>49</v>
+      <c r="B50" t="s">
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>50</v>
+      <c r="B51" t="s">
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>51</v>
+      <c r="B52" t="s">
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>52</v>
+      <c r="B53" t="s">
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>53</v>
+      <c r="B54" t="s">
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>54</v>
+      <c r="B55" t="s">
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>222</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>55</v>
+      <c r="B56" t="s">
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>56</v>
+      <c r="B57" t="s">
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>230</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>57</v>
+      <c r="B58" t="s">
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>58</v>
+      <c r="B59" t="s">
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
-      </c>
-      <c r="G59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>59</v>
+      <c r="B60" t="s">
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
-      </c>
-      <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>60</v>
+      <c r="B61" t="s">
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F61" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>61</v>
+      <c r="B62" t="s">
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F62" t="s">
-        <v>250</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>62</v>
+      <c r="B63" t="s">
+        <v>251</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F63" t="s">
-        <v>254</v>
-      </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>63</v>
+      <c r="B64" t="s">
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>64</v>
+      <c r="B65" t="s">
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F65" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>65</v>
+      <c r="B66" t="s">
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>66</v>
+      <c r="B67" t="s">
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F67" t="s">
-        <v>270</v>
-      </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>67</v>
+      <c r="B68" t="s">
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F68" t="s">
-        <v>273</v>
-      </c>
-      <c r="G68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>68</v>
+      <c r="B69" t="s">
+        <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F69" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>69</v>
+      <c r="B70" t="s">
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
-        <v>280</v>
-      </c>
-      <c r="G70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>70</v>
+      <c r="B71" t="s">
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>71</v>
+      <c r="B72" t="s">
+        <v>285</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
-        <v>288</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>72</v>
+      <c r="B73" t="s">
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F73" t="s">
-        <v>292</v>
-      </c>
-      <c r="G73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>73</v>
+      <c r="B74" t="s">
+        <v>293</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>74</v>
+      <c r="B75" t="s">
+        <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>75</v>
+      <c r="B76" t="s">
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>76</v>
+      <c r="B77" t="s">
+        <v>305</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>77</v>
+      <c r="B78" t="s">
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F78" t="s">
-        <v>312</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>78</v>
+      <c r="B79" t="s">
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E79" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F79" t="s">
-        <v>316</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>79</v>
+      <c r="B80" t="s">
+        <v>317</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>320</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>80</v>
+      <c r="B81" t="s">
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>324</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>81</v>
+      <c r="B82" t="s">
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F82" t="s">
-        <v>328</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>329</v>
+      </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D83" t="s">
+        <v>331</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" t="s">
+        <v>337</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" t="s">
+        <v>342</v>
+      </c>
+      <c r="D87" t="s">
+        <v>343</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88" t="s">
+        <v>345</v>
+      </c>
+      <c r="D88" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" t="s">
+        <v>348</v>
+      </c>
+      <c r="D89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" t="s">
+        <v>352</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>353</v>
+      </c>
+      <c r="C91" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" t="s">
+        <v>355</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>356</v>
+      </c>
+      <c r="C92" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" t="s">
+        <v>361</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C94" t="s">
+        <v>363</v>
+      </c>
+      <c r="D94" t="s">
+        <v>364</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" t="s">
+        <v>367</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>368</v>
+      </c>
+      <c r="C96" t="s">
+        <v>369</v>
+      </c>
+      <c r="D96" t="s">
+        <v>370</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>371</v>
+      </c>
+      <c r="C97" t="s">
+        <v>372</v>
+      </c>
+      <c r="D97" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" t="s">
+        <v>375</v>
+      </c>
+      <c r="D98" t="s">
+        <v>376</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100" t="s">
+        <v>382</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>383</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" t="s">
+        <v>384</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>385</v>
+      </c>
+      <c r="C102" t="s">
+        <v>386</v>
+      </c>
+      <c r="D102" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" t="s">
+        <v>390</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" t="s">
+        <v>392</v>
+      </c>
+      <c r="D104" t="s">
+        <v>393</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>394</v>
+      </c>
+      <c r="C105" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>397</v>
+      </c>
+      <c r="C106" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" t="s">
+        <v>399</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>400</v>
+      </c>
+      <c r="C107" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" t="s">
+        <v>402</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>403</v>
+      </c>
+      <c r="C108" t="s">
+        <v>404</v>
+      </c>
+      <c r="D108" t="s">
+        <v>405</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>406</v>
+      </c>
+      <c r="C109" t="s">
+        <v>407</v>
+      </c>
+      <c r="D109" t="s">
+        <v>408</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>409</v>
+      </c>
+      <c r="C110" t="s">
+        <v>410</v>
+      </c>
+      <c r="D110" t="s">
+        <v>411</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>412</v>
+      </c>
+      <c r="C111" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" t="s">
+        <v>414</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" t="s">
+        <v>416</v>
+      </c>
+      <c r="D112" t="s">
+        <v>417</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>418</v>
+      </c>
+      <c r="C113" t="s">
+        <v>419</v>
+      </c>
+      <c r="D113" t="s">
+        <v>420</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>421</v>
+      </c>
+      <c r="C114" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>424</v>
+      </c>
+      <c r="C115" t="s">
+        <v>425</v>
+      </c>
+      <c r="D115" t="s">
+        <v>426</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>427</v>
+      </c>
+      <c r="C116" t="s">
+        <v>428</v>
+      </c>
+      <c r="D116" t="s">
+        <v>429</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>430</v>
+      </c>
+      <c r="C117" t="s">
+        <v>431</v>
+      </c>
+      <c r="D117" t="s">
+        <v>432</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>433</v>
+      </c>
+      <c r="C118" t="s">
+        <v>434</v>
+      </c>
+      <c r="D118" t="s">
+        <v>435</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>436</v>
+      </c>
+      <c r="C119" t="s">
+        <v>437</v>
+      </c>
+      <c r="D119" t="s">
+        <v>438</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>439</v>
+      </c>
+      <c r="C120" t="s">
+        <v>440</v>
+      </c>
+      <c r="D120" t="s">
+        <v>441</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>442</v>
+      </c>
+      <c r="C121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D121" t="s">
+        <v>444</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>445</v>
+      </c>
+      <c r="C122" t="s">
+        <v>446</v>
+      </c>
+      <c r="D122" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" t="s">
+        <v>450</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>451</v>
+      </c>
+      <c r="C124" t="s">
+        <v>452</v>
+      </c>
+      <c r="D124" t="s">
+        <v>453</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" t="s">
+        <v>454</v>
+      </c>
+      <c r="D125" t="s">
+        <v>455</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>456</v>
+      </c>
+      <c r="C126" t="s">
+        <v>457</v>
+      </c>
+      <c r="D126" t="s">
+        <v>458</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>459</v>
+      </c>
+      <c r="C127" t="s">
+        <v>460</v>
+      </c>
+      <c r="D127" t="s">
+        <v>461</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>462</v>
+      </c>
+      <c r="C128" t="s">
+        <v>463</v>
+      </c>
+      <c r="D128" t="s">
+        <v>464</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>465</v>
+      </c>
+      <c r="C129" t="s">
+        <v>466</v>
+      </c>
+      <c r="D129" t="s">
+        <v>467</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>468</v>
+      </c>
+      <c r="C130" t="s">
+        <v>469</v>
+      </c>
+      <c r="D130" t="s">
+        <v>470</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>471</v>
+      </c>
+      <c r="C131" t="s">
+        <v>472</v>
+      </c>
+      <c r="D131" t="s">
+        <v>473</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>474</v>
+      </c>
+      <c r="C132" t="s">
+        <v>475</v>
+      </c>
+      <c r="D132" t="s">
+        <v>476</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>477</v>
+      </c>
+      <c r="C133" t="s">
+        <v>478</v>
+      </c>
+      <c r="D133" t="s">
+        <v>479</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>480</v>
+      </c>
+      <c r="C134" t="s">
+        <v>481</v>
+      </c>
+      <c r="D134" t="s">
+        <v>482</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>483</v>
+      </c>
+      <c r="C135" t="s">
+        <v>484</v>
+      </c>
+      <c r="D135" t="s">
+        <v>485</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>486</v>
+      </c>
+      <c r="C136" t="s">
+        <v>487</v>
+      </c>
+      <c r="D136" t="s">
+        <v>488</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>489</v>
+      </c>
+      <c r="C137" t="s">
+        <v>490</v>
+      </c>
+      <c r="D137" t="s">
+        <v>491</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>492</v>
+      </c>
+      <c r="C138" t="s">
+        <v>493</v>
+      </c>
+      <c r="D138" t="s">
+        <v>494</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>495</v>
+      </c>
+      <c r="C139" t="s">
+        <v>496</v>
+      </c>
+      <c r="D139" t="s">
+        <v>497</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140" t="s">
+        <v>498</v>
+      </c>
+      <c r="D140" t="s">
+        <v>499</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>500</v>
+      </c>
+      <c r="C141" t="s">
+        <v>501</v>
+      </c>
+      <c r="D141" t="s">
+        <v>502</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>503</v>
+      </c>
+      <c r="C142" t="s">
+        <v>504</v>
+      </c>
+      <c r="D142" t="s">
+        <v>505</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>506</v>
+      </c>
+      <c r="C143" t="s">
+        <v>507</v>
+      </c>
+      <c r="D143" t="s">
+        <v>508</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>509</v>
+      </c>
+      <c r="C144" t="s">
+        <v>510</v>
+      </c>
+      <c r="D144" t="s">
+        <v>511</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" t="s">
+        <v>512</v>
+      </c>
+      <c r="D145" t="s">
+        <v>513</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" t="s">
+        <v>514</v>
+      </c>
+      <c r="D146" t="s">
+        <v>515</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>516</v>
+      </c>
+      <c r="C147" t="s">
+        <v>517</v>
+      </c>
+      <c r="D147" t="s">
+        <v>518</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>519</v>
+      </c>
+      <c r="C148" t="s">
+        <v>375</v>
+      </c>
+      <c r="D148" t="s">
+        <v>520</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>521</v>
+      </c>
+      <c r="C149" t="s">
+        <v>522</v>
+      </c>
+      <c r="D149" t="s">
+        <v>523</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>524</v>
+      </c>
+      <c r="C150" t="s">
+        <v>525</v>
+      </c>
+      <c r="D150" t="s">
+        <v>526</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>527</v>
+      </c>
+      <c r="C151" t="s">
+        <v>528</v>
+      </c>
+      <c r="D151" t="s">
+        <v>529</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>530</v>
+      </c>
+      <c r="C152" t="s">
+        <v>531</v>
+      </c>
+      <c r="D152" t="s">
+        <v>532</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>533</v>
+      </c>
+      <c r="C153" t="s">
+        <v>534</v>
+      </c>
+      <c r="D153" t="s">
+        <v>535</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>536</v>
+      </c>
+      <c r="C154" t="s">
+        <v>537</v>
+      </c>
+      <c r="D154" t="s">
+        <v>538</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>539</v>
+      </c>
+      <c r="C155" t="s">
+        <v>540</v>
+      </c>
+      <c r="D155" t="s">
+        <v>541</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>542</v>
+      </c>
+      <c r="C156" t="s">
+        <v>543</v>
+      </c>
+      <c r="D156" t="s">
+        <v>544</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>545</v>
+      </c>
+      <c r="C157" t="s">
+        <v>546</v>
+      </c>
+      <c r="D157" t="s">
+        <v>547</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>548</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>549</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" t="s">
+        <v>550</v>
+      </c>
+      <c r="D159" t="s">
+        <v>551</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>552</v>
+      </c>
+      <c r="C160" t="s">
+        <v>553</v>
+      </c>
+      <c r="D160" t="s">
+        <v>554</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" t="s">
+        <v>555</v>
+      </c>
+      <c r="D161" t="s">
+        <v>556</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>557</v>
+      </c>
+      <c r="C162" t="s">
+        <v>558</v>
+      </c>
+      <c r="D162" t="s">
+        <v>559</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>560</v>
+      </c>
+      <c r="C163" t="s">
+        <v>561</v>
+      </c>
+      <c r="D163" t="s">
+        <v>562</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>563</v>
+      </c>
+      <c r="D164" t="s">
+        <v>564</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>565</v>
+      </c>
+      <c r="C165" t="s">
+        <v>566</v>
+      </c>
+      <c r="D165" t="s">
+        <v>567</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>568</v>
+      </c>
+      <c r="C166" t="s">
+        <v>569</v>
+      </c>
+      <c r="D166" t="s">
+        <v>570</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>380</v>
+      </c>
+      <c r="C167" t="s">
+        <v>571</v>
+      </c>
+      <c r="D167" t="s">
+        <v>572</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>573</v>
+      </c>
+      <c r="C168" t="s">
+        <v>574</v>
+      </c>
+      <c r="D168" t="s">
+        <v>575</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>576</v>
+      </c>
+      <c r="C169" t="s">
+        <v>577</v>
+      </c>
+      <c r="D169" t="s">
+        <v>578</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>579</v>
+      </c>
+      <c r="C170" t="s">
+        <v>580</v>
+      </c>
+      <c r="D170" t="s">
+        <v>581</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>582</v>
+      </c>
+      <c r="C171" t="s">
+        <v>583</v>
+      </c>
+      <c r="D171" t="s">
+        <v>584</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>585</v>
+      </c>
+      <c r="C172" t="s">
+        <v>586</v>
+      </c>
+      <c r="D172" t="s">
+        <v>587</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173" t="s">
+        <v>588</v>
+      </c>
+      <c r="D173" t="s">
+        <v>589</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>590</v>
+      </c>
+      <c r="C174" t="s">
+        <v>591</v>
+      </c>
+      <c r="D174" t="s">
+        <v>592</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>593</v>
+      </c>
+      <c r="C175" t="s">
+        <v>594</v>
+      </c>
+      <c r="D175" t="s">
+        <v>595</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" t="s">
+        <v>597</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" t="s">
+        <v>440</v>
+      </c>
+      <c r="D177" t="s">
+        <v>598</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>599</v>
+      </c>
+      <c r="C178" t="s">
+        <v>600</v>
+      </c>
+      <c r="D178" t="s">
+        <v>601</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>602</v>
+      </c>
+      <c r="C179" t="s">
+        <v>603</v>
+      </c>
+      <c r="D179" t="s">
+        <v>604</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>605</v>
+      </c>
+      <c r="D180" t="s">
+        <v>606</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>607</v>
+      </c>
+      <c r="C181" t="s">
+        <v>608</v>
+      </c>
+      <c r="D181" t="s">
+        <v>609</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>610</v>
+      </c>
+      <c r="C182" t="s">
+        <v>611</v>
+      </c>
+      <c r="D182" t="s">
+        <v>612</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" t="s">
+        <v>613</v>
+      </c>
+      <c r="D183" t="s">
+        <v>614</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>615</v>
+      </c>
+      <c r="C184" t="s">
+        <v>616</v>
+      </c>
+      <c r="D184" t="s">
+        <v>617</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>618</v>
+      </c>
+      <c r="C185" t="s">
+        <v>619</v>
+      </c>
+      <c r="D185" t="s">
+        <v>620</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>621</v>
+      </c>
+      <c r="C186" t="s">
         <v>330</v>
       </c>
-      <c r="E83" t="s">
-        <v>331</v>
-      </c>
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84">
+      <c r="D186" t="s">
+        <v>622</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" t="s">
-        <v>333</v>
-      </c>
-      <c r="E84" t="s">
-        <v>334</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85">
+      <c r="C187" t="s">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
-        <v>335</v>
-      </c>
-      <c r="D85" t="s">
-        <v>336</v>
-      </c>
-      <c r="E85" t="s">
-        <v>337</v>
-      </c>
-      <c r="G85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86">
+      <c r="D187" t="s">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
-        <v>338</v>
-      </c>
-      <c r="D86" t="s">
-        <v>339</v>
-      </c>
-      <c r="E86" t="s">
-        <v>340</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" t="s">
-        <v>342</v>
-      </c>
-      <c r="E87" t="s">
-        <v>343</v>
-      </c>
-      <c r="G87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88" t="s">
-        <v>344</v>
-      </c>
-      <c r="D88" t="s">
-        <v>345</v>
-      </c>
-      <c r="E88" t="s">
-        <v>346</v>
-      </c>
-      <c r="G88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
-        <v>347</v>
-      </c>
-      <c r="D89" t="s">
-        <v>348</v>
-      </c>
-      <c r="E89" t="s">
-        <v>349</v>
-      </c>
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="C90" t="s">
-        <v>350</v>
-      </c>
-      <c r="D90" t="s">
-        <v>351</v>
-      </c>
-      <c r="E90" t="s">
-        <v>352</v>
-      </c>
-      <c r="G90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="C91" t="s">
-        <v>353</v>
-      </c>
-      <c r="D91" t="s">
-        <v>354</v>
-      </c>
-      <c r="E91" t="s">
-        <v>355</v>
-      </c>
-      <c r="G91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>356</v>
-      </c>
-      <c r="D92" t="s">
-        <v>357</v>
-      </c>
-      <c r="E92" t="s">
-        <v>358</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93">
-        <v>92</v>
-      </c>
-      <c r="C93" t="s">
-        <v>359</v>
-      </c>
-      <c r="D93" t="s">
-        <v>360</v>
-      </c>
-      <c r="E93" t="s">
-        <v>361</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>362</v>
-      </c>
-      <c r="D94" t="s">
-        <v>363</v>
-      </c>
-      <c r="E94" t="s">
-        <v>364</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95" t="s">
-        <v>365</v>
-      </c>
-      <c r="D95" t="s">
-        <v>366</v>
-      </c>
-      <c r="E95" t="s">
-        <v>367</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96">
-        <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>368</v>
-      </c>
-      <c r="D96" t="s">
-        <v>369</v>
-      </c>
-      <c r="E96" t="s">
-        <v>370</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97" t="s">
-        <v>371</v>
-      </c>
-      <c r="D97" t="s">
-        <v>372</v>
-      </c>
-      <c r="E97" t="s">
-        <v>373</v>
-      </c>
-      <c r="G97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98" t="s">
-        <v>374</v>
-      </c>
-      <c r="D98" t="s">
-        <v>375</v>
-      </c>
-      <c r="E98" t="s">
-        <v>376</v>
-      </c>
-      <c r="G98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99" t="s">
-        <v>377</v>
-      </c>
-      <c r="D99" t="s">
-        <v>378</v>
-      </c>
-      <c r="E99" t="s">
-        <v>379</v>
-      </c>
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100" t="s">
-        <v>380</v>
-      </c>
-      <c r="D100" t="s">
-        <v>381</v>
-      </c>
-      <c r="E100" t="s">
-        <v>382</v>
-      </c>
-      <c r="G100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>623</v>
+      </c>
+      <c r="C188" t="s">
+        <v>624</v>
+      </c>
+      <c r="D188" t="s">
+        <v>625</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>626</v>
+      </c>
+      <c r="C189" t="s">
+        <v>627</v>
+      </c>
+      <c r="D189" t="s">
+        <v>628</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>629</v>
+      </c>
+      <c r="C190" t="s">
+        <v>630</v>
+      </c>
+      <c r="D190" t="s">
+        <v>631</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>632</v>
+      </c>
+      <c r="C191" t="s">
+        <v>633</v>
+      </c>
+      <c r="D191" t="s">
+        <v>634</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>635</v>
+      </c>
+      <c r="C192" t="s">
+        <v>636</v>
+      </c>
+      <c r="D192" t="s">
+        <v>637</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>159</v>
+      </c>
+      <c r="C193" t="s">
+        <v>638</v>
+      </c>
+      <c r="D193" t="s">
+        <v>639</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>640</v>
+      </c>
+      <c r="C194" t="s">
+        <v>641</v>
+      </c>
+      <c r="D194" t="s">
+        <v>642</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>643</v>
+      </c>
+      <c r="C195" t="s">
+        <v>644</v>
+      </c>
+      <c r="D195" t="s">
+        <v>645</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>646</v>
+      </c>
+      <c r="C196" t="s">
+        <v>647</v>
+      </c>
+      <c r="D196" t="s">
+        <v>648</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
         <v>383</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C197" t="s">
         <v>252</v>
       </c>
-      <c r="E101" t="s">
-        <v>384</v>
-      </c>
-      <c r="G101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102">
-        <v>101</v>
-      </c>
-      <c r="C102" t="s">
-        <v>385</v>
-      </c>
-      <c r="D102" t="s">
-        <v>386</v>
-      </c>
-      <c r="E102" t="s">
-        <v>387</v>
-      </c>
-      <c r="G102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103">
-        <v>102</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D197" t="s">
+        <v>649</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>650</v>
+      </c>
+      <c r="C198" t="s">
+        <v>651</v>
+      </c>
+      <c r="D198" t="s">
+        <v>652</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
         <v>388</v>
       </c>
-      <c r="D103" t="s">
-        <v>389</v>
-      </c>
-      <c r="E103" t="s">
-        <v>390</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104">
-        <v>103</v>
-      </c>
-      <c r="C104" t="s">
-        <v>391</v>
-      </c>
-      <c r="D104" t="s">
-        <v>392</v>
-      </c>
-      <c r="E104" t="s">
-        <v>393</v>
-      </c>
-      <c r="G104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105">
-        <v>104</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="C199" t="s">
+        <v>653</v>
+      </c>
+      <c r="D199" t="s">
+        <v>654</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>655</v>
+      </c>
+      <c r="C200" t="s">
+        <v>656</v>
+      </c>
+      <c r="D200" t="s">
+        <v>657</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
         <v>394</v>
       </c>
-      <c r="D105" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" t="s">
-        <v>396</v>
-      </c>
-      <c r="G105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106">
-        <v>105</v>
-      </c>
-      <c r="C106" t="s">
-        <v>397</v>
-      </c>
-      <c r="D106" t="s">
-        <v>398</v>
-      </c>
-      <c r="E106" t="s">
-        <v>399</v>
-      </c>
-      <c r="G106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107">
-        <v>106</v>
-      </c>
-      <c r="C107" t="s">
-        <v>400</v>
-      </c>
-      <c r="D107" t="s">
-        <v>401</v>
-      </c>
-      <c r="E107" t="s">
-        <v>402</v>
-      </c>
-      <c r="G107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108">
-        <v>107</v>
-      </c>
-      <c r="C108" t="s">
-        <v>403</v>
-      </c>
-      <c r="D108" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" t="s">
-        <v>405</v>
-      </c>
-      <c r="G108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109">
-        <v>108</v>
-      </c>
-      <c r="C109" t="s">
-        <v>406</v>
-      </c>
-      <c r="D109" t="s">
-        <v>407</v>
-      </c>
-      <c r="E109" t="s">
-        <v>408</v>
-      </c>
-      <c r="G109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110">
-        <v>109</v>
-      </c>
-      <c r="C110" t="s">
-        <v>409</v>
-      </c>
-      <c r="D110" t="s">
-        <v>410</v>
-      </c>
-      <c r="E110" t="s">
-        <v>411</v>
-      </c>
-      <c r="G110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111">
-        <v>110</v>
-      </c>
-      <c r="C111" t="s">
-        <v>412</v>
-      </c>
-      <c r="D111" t="s">
-        <v>413</v>
-      </c>
-      <c r="E111" t="s">
-        <v>414</v>
-      </c>
-      <c r="G111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112">
-        <v>111</v>
-      </c>
-      <c r="C112" t="s">
-        <v>415</v>
-      </c>
-      <c r="D112" t="s">
-        <v>416</v>
-      </c>
-      <c r="E112" t="s">
-        <v>417</v>
-      </c>
-      <c r="G112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113">
-        <v>112</v>
-      </c>
-      <c r="C113" t="s">
-        <v>418</v>
-      </c>
-      <c r="D113" t="s">
-        <v>419</v>
-      </c>
-      <c r="E113" t="s">
-        <v>420</v>
-      </c>
-      <c r="G113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114">
-        <v>113</v>
-      </c>
-      <c r="C114" t="s">
-        <v>421</v>
-      </c>
-      <c r="D114" t="s">
-        <v>422</v>
-      </c>
-      <c r="E114" t="s">
-        <v>423</v>
-      </c>
-      <c r="G114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115">
-        <v>114</v>
-      </c>
-      <c r="C115" t="s">
-        <v>424</v>
-      </c>
-      <c r="D115" t="s">
-        <v>425</v>
-      </c>
-      <c r="E115" t="s">
-        <v>426</v>
-      </c>
-      <c r="G115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116">
-        <v>115</v>
-      </c>
-      <c r="C116" t="s">
-        <v>427</v>
-      </c>
-      <c r="D116" t="s">
-        <v>428</v>
-      </c>
-      <c r="E116" t="s">
-        <v>429</v>
-      </c>
-      <c r="G116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117">
-        <v>116</v>
-      </c>
-      <c r="C117" t="s">
-        <v>430</v>
-      </c>
-      <c r="D117" t="s">
-        <v>431</v>
-      </c>
-      <c r="E117" t="s">
-        <v>432</v>
-      </c>
-      <c r="G117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>433</v>
-      </c>
-      <c r="D118" t="s">
-        <v>434</v>
-      </c>
-      <c r="E118" t="s">
-        <v>435</v>
-      </c>
-      <c r="G118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119">
-        <v>118</v>
-      </c>
-      <c r="C119" t="s">
-        <v>436</v>
-      </c>
-      <c r="D119" t="s">
-        <v>437</v>
-      </c>
-      <c r="E119" t="s">
-        <v>438</v>
-      </c>
-      <c r="G119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120">
-        <v>119</v>
-      </c>
-      <c r="C120" t="s">
-        <v>439</v>
-      </c>
-      <c r="D120" t="s">
-        <v>440</v>
-      </c>
-      <c r="E120" t="s">
-        <v>441</v>
-      </c>
-      <c r="G120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="B121">
-        <v>120</v>
-      </c>
-      <c r="C121" t="s">
-        <v>442</v>
-      </c>
-      <c r="D121" t="s">
-        <v>443</v>
-      </c>
-      <c r="E121" t="s">
-        <v>444</v>
-      </c>
-      <c r="G121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122">
-        <v>121</v>
-      </c>
-      <c r="C122" t="s">
-        <v>445</v>
-      </c>
-      <c r="D122" t="s">
-        <v>446</v>
-      </c>
-      <c r="E122" t="s">
-        <v>447</v>
-      </c>
-      <c r="G122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123">
-        <v>122</v>
-      </c>
-      <c r="C123" t="s">
-        <v>448</v>
-      </c>
-      <c r="D123" t="s">
-        <v>449</v>
-      </c>
-      <c r="E123" t="s">
-        <v>450</v>
-      </c>
-      <c r="G123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124">
-        <v>123</v>
-      </c>
-      <c r="C124" t="s">
-        <v>451</v>
-      </c>
-      <c r="D124" t="s">
-        <v>452</v>
-      </c>
-      <c r="E124" t="s">
-        <v>453</v>
-      </c>
-      <c r="G124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7">
-      <c r="B125">
-        <v>124</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
-      </c>
-      <c r="D125" t="s">
-        <v>454</v>
-      </c>
-      <c r="E125" t="s">
-        <v>455</v>
-      </c>
-      <c r="G125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126">
-        <v>125</v>
-      </c>
-      <c r="C126" t="s">
-        <v>456</v>
-      </c>
-      <c r="D126" t="s">
-        <v>457</v>
-      </c>
-      <c r="E126" t="s">
-        <v>458</v>
-      </c>
-      <c r="G126" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7">
-      <c r="B127">
-        <v>126</v>
-      </c>
-      <c r="C127" t="s">
-        <v>459</v>
-      </c>
-      <c r="D127" t="s">
-        <v>460</v>
-      </c>
-      <c r="E127" t="s">
-        <v>461</v>
-      </c>
-      <c r="G127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128">
-        <v>127</v>
-      </c>
-      <c r="C128" t="s">
-        <v>462</v>
-      </c>
-      <c r="D128" t="s">
-        <v>463</v>
-      </c>
-      <c r="E128" t="s">
-        <v>464</v>
-      </c>
-      <c r="G128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="B129">
-        <v>128</v>
-      </c>
-      <c r="C129" t="s">
-        <v>465</v>
-      </c>
-      <c r="D129" t="s">
-        <v>466</v>
-      </c>
-      <c r="E129" t="s">
-        <v>467</v>
-      </c>
-      <c r="G129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130">
-        <v>129</v>
-      </c>
-      <c r="C130" t="s">
-        <v>468</v>
-      </c>
-      <c r="D130" t="s">
-        <v>469</v>
-      </c>
-      <c r="E130" t="s">
-        <v>470</v>
-      </c>
-      <c r="G130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="B131">
-        <v>130</v>
-      </c>
-      <c r="C131" t="s">
-        <v>471</v>
-      </c>
-      <c r="D131" t="s">
-        <v>472</v>
-      </c>
-      <c r="E131" t="s">
-        <v>473</v>
-      </c>
-      <c r="G131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="B132">
-        <v>131</v>
-      </c>
-      <c r="C132" t="s">
-        <v>474</v>
-      </c>
-      <c r="D132" t="s">
-        <v>475</v>
-      </c>
-      <c r="E132" t="s">
-        <v>476</v>
-      </c>
-      <c r="G132" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="B133">
-        <v>132</v>
-      </c>
-      <c r="C133" t="s">
-        <v>477</v>
-      </c>
-      <c r="D133" t="s">
-        <v>478</v>
-      </c>
-      <c r="E133" t="s">
-        <v>479</v>
-      </c>
-      <c r="G133" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="B134">
-        <v>133</v>
-      </c>
-      <c r="C134" t="s">
-        <v>480</v>
-      </c>
-      <c r="D134" t="s">
-        <v>481</v>
-      </c>
-      <c r="E134" t="s">
-        <v>482</v>
-      </c>
-      <c r="G134" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135">
-        <v>134</v>
-      </c>
-      <c r="C135" t="s">
-        <v>483</v>
-      </c>
-      <c r="D135" t="s">
-        <v>484</v>
-      </c>
-      <c r="E135" t="s">
-        <v>485</v>
-      </c>
-      <c r="G135" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="B136">
-        <v>135</v>
-      </c>
-      <c r="C136" t="s">
-        <v>486</v>
-      </c>
-      <c r="D136" t="s">
-        <v>487</v>
-      </c>
-      <c r="E136" t="s">
-        <v>488</v>
-      </c>
-      <c r="G136" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="B137">
-        <v>136</v>
-      </c>
-      <c r="C137" t="s">
-        <v>489</v>
-      </c>
-      <c r="D137" t="s">
-        <v>490</v>
-      </c>
-      <c r="E137" t="s">
-        <v>491</v>
-      </c>
-      <c r="G137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>492</v>
-      </c>
-      <c r="D138" t="s">
-        <v>493</v>
-      </c>
-      <c r="E138" t="s">
-        <v>494</v>
-      </c>
-      <c r="G138" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7">
-      <c r="B139">
-        <v>138</v>
-      </c>
-      <c r="C139" t="s">
-        <v>495</v>
-      </c>
-      <c r="D139" t="s">
-        <v>496</v>
-      </c>
-      <c r="E139" t="s">
-        <v>497</v>
-      </c>
-      <c r="G139" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7">
-      <c r="B140">
-        <v>139</v>
-      </c>
-      <c r="C140" t="s">
-        <v>243</v>
-      </c>
-      <c r="D140" t="s">
-        <v>498</v>
-      </c>
-      <c r="E140" t="s">
-        <v>499</v>
-      </c>
-      <c r="G140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7">
-      <c r="B141">
-        <v>140</v>
-      </c>
-      <c r="C141" t="s">
-        <v>500</v>
-      </c>
-      <c r="D141" t="s">
-        <v>501</v>
-      </c>
-      <c r="E141" t="s">
-        <v>502</v>
-      </c>
-      <c r="G141" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="B142">
-        <v>141</v>
-      </c>
-      <c r="C142" t="s">
-        <v>503</v>
-      </c>
-      <c r="D142" t="s">
-        <v>504</v>
-      </c>
-      <c r="E142" t="s">
-        <v>505</v>
-      </c>
-      <c r="G142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143">
-        <v>142</v>
-      </c>
-      <c r="C143" t="s">
-        <v>506</v>
-      </c>
-      <c r="D143" t="s">
-        <v>507</v>
-      </c>
-      <c r="E143" t="s">
-        <v>508</v>
-      </c>
-      <c r="G143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="B144">
-        <v>143</v>
-      </c>
-      <c r="C144" t="s">
-        <v>509</v>
-      </c>
-      <c r="D144" t="s">
-        <v>510</v>
-      </c>
-      <c r="E144" t="s">
-        <v>511</v>
-      </c>
-      <c r="G144" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145">
-        <v>144</v>
-      </c>
-      <c r="C145" t="s">
-        <v>223</v>
-      </c>
-      <c r="D145" t="s">
-        <v>512</v>
-      </c>
-      <c r="E145" t="s">
-        <v>513</v>
-      </c>
-      <c r="G145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146">
-        <v>145</v>
-      </c>
-      <c r="C146" t="s">
-        <v>187</v>
-      </c>
-      <c r="D146" t="s">
-        <v>514</v>
-      </c>
-      <c r="E146" t="s">
-        <v>515</v>
-      </c>
-      <c r="G146" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147">
-        <v>146</v>
-      </c>
-      <c r="C147" t="s">
-        <v>516</v>
-      </c>
-      <c r="D147" t="s">
-        <v>517</v>
-      </c>
-      <c r="E147" t="s">
-        <v>518</v>
-      </c>
-      <c r="G147" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148">
-        <v>147</v>
-      </c>
-      <c r="C148" t="s">
-        <v>519</v>
-      </c>
-      <c r="D148" t="s">
-        <v>375</v>
-      </c>
-      <c r="E148" t="s">
-        <v>520</v>
-      </c>
-      <c r="G148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149">
-        <v>148</v>
-      </c>
-      <c r="C149" t="s">
-        <v>521</v>
-      </c>
-      <c r="D149" t="s">
-        <v>522</v>
-      </c>
-      <c r="E149" t="s">
-        <v>523</v>
-      </c>
-      <c r="G149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7">
-      <c r="B150">
-        <v>149</v>
-      </c>
-      <c r="C150" t="s">
-        <v>524</v>
-      </c>
-      <c r="D150" t="s">
-        <v>525</v>
-      </c>
-      <c r="E150" t="s">
-        <v>526</v>
-      </c>
-      <c r="G150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7">
-      <c r="B151">
-        <v>150</v>
-      </c>
-      <c r="C151" t="s">
-        <v>527</v>
-      </c>
-      <c r="D151" t="s">
-        <v>528</v>
-      </c>
-      <c r="E151" t="s">
-        <v>529</v>
-      </c>
-      <c r="G151" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7">
-      <c r="B152">
-        <v>151</v>
-      </c>
-      <c r="C152" t="s">
-        <v>530</v>
-      </c>
-      <c r="D152" t="s">
-        <v>531</v>
-      </c>
-      <c r="E152" t="s">
-        <v>532</v>
-      </c>
-      <c r="G152" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153">
-        <v>152</v>
-      </c>
-      <c r="C153" t="s">
-        <v>533</v>
-      </c>
-      <c r="D153" t="s">
-        <v>534</v>
-      </c>
-      <c r="E153" t="s">
-        <v>535</v>
-      </c>
-      <c r="G153" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7">
-      <c r="B154">
-        <v>153</v>
-      </c>
-      <c r="C154" t="s">
-        <v>536</v>
-      </c>
-      <c r="D154" t="s">
-        <v>537</v>
-      </c>
-      <c r="E154" t="s">
-        <v>538</v>
-      </c>
-      <c r="G154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7">
-      <c r="B155">
-        <v>154</v>
-      </c>
-      <c r="C155" t="s">
-        <v>539</v>
-      </c>
-      <c r="D155" t="s">
-        <v>540</v>
-      </c>
-      <c r="E155" t="s">
-        <v>541</v>
-      </c>
-      <c r="G155" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156">
-        <v>155</v>
-      </c>
-      <c r="C156" t="s">
-        <v>542</v>
-      </c>
-      <c r="D156" t="s">
-        <v>543</v>
-      </c>
-      <c r="E156" t="s">
-        <v>544</v>
-      </c>
-      <c r="G156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157">
-        <v>156</v>
-      </c>
-      <c r="C157" t="s">
-        <v>545</v>
-      </c>
-      <c r="D157" t="s">
-        <v>546</v>
-      </c>
-      <c r="E157" t="s">
-        <v>547</v>
-      </c>
-      <c r="G157" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158">
-        <v>157</v>
-      </c>
-      <c r="C158" t="s">
-        <v>548</v>
-      </c>
-      <c r="D158" t="s">
-        <v>68</v>
-      </c>
-      <c r="E158" t="s">
-        <v>549</v>
-      </c>
-      <c r="G158" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159">
-        <v>158</v>
-      </c>
-      <c r="C159" t="s">
-        <v>87</v>
-      </c>
-      <c r="D159" t="s">
-        <v>550</v>
-      </c>
-      <c r="E159" t="s">
-        <v>551</v>
-      </c>
-      <c r="G159" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="B160">
-        <v>159</v>
-      </c>
-      <c r="C160" t="s">
-        <v>552</v>
-      </c>
-      <c r="D160" t="s">
-        <v>553</v>
-      </c>
-      <c r="E160" t="s">
-        <v>554</v>
-      </c>
-      <c r="G160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7">
-      <c r="B161">
-        <v>160</v>
-      </c>
-      <c r="C161" t="s">
-        <v>111</v>
-      </c>
-      <c r="D161" t="s">
-        <v>555</v>
-      </c>
-      <c r="E161" t="s">
-        <v>556</v>
-      </c>
-      <c r="G161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7">
-      <c r="B162">
-        <v>161</v>
-      </c>
-      <c r="C162" t="s">
-        <v>557</v>
-      </c>
-      <c r="D162" t="s">
-        <v>558</v>
-      </c>
-      <c r="E162" t="s">
-        <v>559</v>
-      </c>
-      <c r="G162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7">
-      <c r="B163">
-        <v>162</v>
-      </c>
-      <c r="C163" t="s">
-        <v>560</v>
-      </c>
-      <c r="D163" t="s">
-        <v>561</v>
-      </c>
-      <c r="E163" t="s">
-        <v>562</v>
-      </c>
-      <c r="G163" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7">
-      <c r="B164">
-        <v>163</v>
-      </c>
-      <c r="C164" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" t="s">
-        <v>563</v>
-      </c>
-      <c r="E164" t="s">
-        <v>564</v>
-      </c>
-      <c r="G164" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165">
-        <v>164</v>
-      </c>
-      <c r="C165" t="s">
-        <v>565</v>
-      </c>
-      <c r="D165" t="s">
-        <v>566</v>
-      </c>
-      <c r="E165" t="s">
-        <v>567</v>
-      </c>
-      <c r="G165" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7">
-      <c r="B166">
-        <v>165</v>
-      </c>
-      <c r="C166" t="s">
-        <v>568</v>
-      </c>
-      <c r="D166" t="s">
-        <v>569</v>
-      </c>
-      <c r="E166" t="s">
-        <v>570</v>
-      </c>
-      <c r="G166" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167">
-        <v>166</v>
-      </c>
-      <c r="C167" t="s">
-        <v>380</v>
-      </c>
-      <c r="D167" t="s">
-        <v>571</v>
-      </c>
-      <c r="E167" t="s">
-        <v>572</v>
-      </c>
-      <c r="G167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7">
-      <c r="B168">
-        <v>167</v>
-      </c>
-      <c r="C168" t="s">
-        <v>573</v>
-      </c>
-      <c r="D168" t="s">
-        <v>574</v>
-      </c>
-      <c r="E168" t="s">
-        <v>575</v>
-      </c>
-      <c r="G168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169">
-        <v>168</v>
-      </c>
-      <c r="C169" t="s">
-        <v>576</v>
-      </c>
-      <c r="D169" t="s">
-        <v>577</v>
-      </c>
-      <c r="E169" t="s">
-        <v>578</v>
-      </c>
-      <c r="G169" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170">
-        <v>169</v>
-      </c>
-      <c r="C170" t="s">
-        <v>579</v>
-      </c>
-      <c r="D170" t="s">
-        <v>580</v>
-      </c>
-      <c r="E170" t="s">
-        <v>581</v>
-      </c>
-      <c r="G170" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="B171">
-        <v>170</v>
-      </c>
-      <c r="C171" t="s">
-        <v>582</v>
-      </c>
-      <c r="D171" t="s">
-        <v>583</v>
-      </c>
-      <c r="E171" t="s">
-        <v>584</v>
-      </c>
-      <c r="G171" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7">
-      <c r="B172">
-        <v>171</v>
-      </c>
-      <c r="C172" t="s">
-        <v>585</v>
-      </c>
-      <c r="D172" t="s">
-        <v>586</v>
-      </c>
-      <c r="E172" t="s">
-        <v>587</v>
-      </c>
-      <c r="G172" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
-      <c r="B173">
-        <v>172</v>
-      </c>
-      <c r="C173" t="s">
-        <v>179</v>
-      </c>
-      <c r="D173" t="s">
-        <v>588</v>
-      </c>
-      <c r="E173" t="s">
-        <v>589</v>
-      </c>
-      <c r="G173" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7">
-      <c r="B174">
-        <v>173</v>
-      </c>
-      <c r="C174" t="s">
-        <v>590</v>
-      </c>
-      <c r="D174" t="s">
-        <v>591</v>
-      </c>
-      <c r="E174" t="s">
-        <v>592</v>
-      </c>
-      <c r="G174" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7">
-      <c r="B175">
-        <v>174</v>
-      </c>
-      <c r="C175" t="s">
-        <v>593</v>
-      </c>
-      <c r="D175" t="s">
-        <v>594</v>
-      </c>
-      <c r="E175" t="s">
-        <v>595</v>
-      </c>
-      <c r="G175" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7">
-      <c r="B176">
-        <v>175</v>
-      </c>
-      <c r="C176" t="s">
-        <v>409</v>
-      </c>
-      <c r="D176" t="s">
-        <v>596</v>
-      </c>
-      <c r="E176" t="s">
-        <v>597</v>
-      </c>
-      <c r="G176" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7">
-      <c r="B177">
-        <v>176</v>
-      </c>
-      <c r="C177" t="s">
-        <v>439</v>
-      </c>
-      <c r="D177" t="s">
-        <v>440</v>
-      </c>
-      <c r="E177" t="s">
-        <v>598</v>
-      </c>
-      <c r="G177" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7">
-      <c r="B178">
-        <v>177</v>
-      </c>
-      <c r="C178" t="s">
-        <v>599</v>
-      </c>
-      <c r="D178" t="s">
-        <v>600</v>
-      </c>
-      <c r="E178" t="s">
-        <v>601</v>
-      </c>
-      <c r="G178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7">
-      <c r="B179">
-        <v>178</v>
-      </c>
-      <c r="C179" t="s">
-        <v>602</v>
-      </c>
-      <c r="D179" t="s">
-        <v>603</v>
-      </c>
-      <c r="E179" t="s">
-        <v>604</v>
-      </c>
-      <c r="G179" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7">
-      <c r="B180">
-        <v>179</v>
-      </c>
-      <c r="C180" t="s">
-        <v>63</v>
-      </c>
-      <c r="D180" t="s">
-        <v>605</v>
-      </c>
-      <c r="E180" t="s">
-        <v>606</v>
-      </c>
-      <c r="G180" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7">
-      <c r="B181">
-        <v>180</v>
-      </c>
-      <c r="C181" t="s">
-        <v>607</v>
-      </c>
-      <c r="D181" t="s">
-        <v>608</v>
-      </c>
-      <c r="E181" t="s">
-        <v>609</v>
-      </c>
-      <c r="G181" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7">
-      <c r="B182">
-        <v>181</v>
-      </c>
-      <c r="C182" t="s">
-        <v>610</v>
-      </c>
-      <c r="D182" t="s">
-        <v>611</v>
-      </c>
-      <c r="E182" t="s">
-        <v>612</v>
-      </c>
-      <c r="G182" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7">
-      <c r="B183">
-        <v>182</v>
-      </c>
-      <c r="C183" t="s">
-        <v>362</v>
-      </c>
-      <c r="D183" t="s">
-        <v>613</v>
-      </c>
-      <c r="E183" t="s">
-        <v>614</v>
-      </c>
-      <c r="G183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7">
-      <c r="B184">
-        <v>183</v>
-      </c>
-      <c r="C184" t="s">
-        <v>615</v>
-      </c>
-      <c r="D184" t="s">
-        <v>616</v>
-      </c>
-      <c r="E184" t="s">
-        <v>617</v>
-      </c>
-      <c r="G184" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7">
-      <c r="B185">
-        <v>184</v>
-      </c>
-      <c r="C185" t="s">
-        <v>618</v>
-      </c>
-      <c r="D185" t="s">
-        <v>619</v>
-      </c>
-      <c r="E185" t="s">
-        <v>620</v>
-      </c>
-      <c r="G185" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7">
-      <c r="B186">
-        <v>185</v>
-      </c>
-      <c r="C186" t="s">
-        <v>621</v>
-      </c>
-      <c r="D186" t="s">
-        <v>330</v>
-      </c>
-      <c r="E186" t="s">
-        <v>622</v>
-      </c>
-      <c r="G186" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7">
-      <c r="B187">
-        <v>186</v>
-      </c>
-      <c r="C187" t="s">
-        <v>83</v>
-      </c>
-      <c r="D187" t="s">
-        <v>84</v>
-      </c>
-      <c r="E187" t="s">
-        <v>85</v>
-      </c>
-      <c r="G187" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7">
-      <c r="B188">
-        <v>187</v>
-      </c>
-      <c r="C188" t="s">
-        <v>623</v>
-      </c>
-      <c r="D188" t="s">
-        <v>624</v>
-      </c>
-      <c r="E188" t="s">
-        <v>625</v>
-      </c>
-      <c r="G188" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7">
-      <c r="B189">
-        <v>188</v>
-      </c>
-      <c r="C189" t="s">
-        <v>626</v>
-      </c>
-      <c r="D189" t="s">
-        <v>627</v>
-      </c>
-      <c r="E189" t="s">
-        <v>628</v>
-      </c>
-      <c r="G189" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7">
-      <c r="B190">
-        <v>189</v>
-      </c>
-      <c r="C190" t="s">
-        <v>629</v>
-      </c>
-      <c r="D190" t="s">
-        <v>630</v>
-      </c>
-      <c r="E190" t="s">
-        <v>631</v>
-      </c>
-      <c r="G190" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7">
-      <c r="B191">
-        <v>190</v>
-      </c>
-      <c r="C191" t="s">
-        <v>632</v>
-      </c>
-      <c r="D191" t="s">
-        <v>633</v>
-      </c>
-      <c r="E191" t="s">
-        <v>634</v>
-      </c>
-      <c r="G191" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192">
+      <c r="C201" t="s">
+        <v>658</v>
+      </c>
+      <c r="D201" t="s">
+        <v>659</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>660</v>
+      </c>
+      <c r="C202" t="s">
+        <v>661</v>
+      </c>
+      <c r="D202" t="s">
+        <v>662</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>663</v>
+      </c>
+      <c r="C203" t="s">
+        <v>664</v>
+      </c>
+      <c r="D203" t="s">
+        <v>665</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>666</v>
+      </c>
+      <c r="C204" t="s">
+        <v>667</v>
+      </c>
+      <c r="D204" t="s">
+        <v>668</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>669</v>
+      </c>
+      <c r="C205" t="s">
+        <v>670</v>
+      </c>
+      <c r="D205" t="s">
+        <v>671</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>672</v>
+      </c>
+      <c r="C206" t="s">
+        <v>673</v>
+      </c>
+      <c r="D206" t="s">
+        <v>674</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>675</v>
+      </c>
+      <c r="C207" t="s">
+        <v>676</v>
+      </c>
+      <c r="D207" t="s">
+        <v>677</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
         <v>191</v>
       </c>
-      <c r="C192" t="s">
-        <v>635</v>
-      </c>
-      <c r="D192" t="s">
-        <v>636</v>
-      </c>
-      <c r="E192" t="s">
-        <v>637</v>
-      </c>
-      <c r="G192" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7">
-      <c r="B193">
-        <v>192</v>
-      </c>
-      <c r="C193" t="s">
-        <v>159</v>
-      </c>
-      <c r="D193" t="s">
-        <v>638</v>
-      </c>
-      <c r="E193" t="s">
-        <v>639</v>
-      </c>
-      <c r="G193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7">
-      <c r="B194">
-        <v>193</v>
-      </c>
-      <c r="C194" t="s">
-        <v>640</v>
-      </c>
-      <c r="D194" t="s">
-        <v>641</v>
-      </c>
-      <c r="E194" t="s">
-        <v>642</v>
-      </c>
-      <c r="G194" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="B195">
-        <v>194</v>
-      </c>
-      <c r="C195" t="s">
-        <v>643</v>
-      </c>
-      <c r="D195" t="s">
-        <v>644</v>
-      </c>
-      <c r="E195" t="s">
-        <v>645</v>
-      </c>
-      <c r="G195" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7">
-      <c r="B196">
-        <v>195</v>
-      </c>
-      <c r="C196" t="s">
-        <v>646</v>
-      </c>
-      <c r="D196" t="s">
-        <v>647</v>
-      </c>
-      <c r="E196" t="s">
-        <v>648</v>
-      </c>
-      <c r="G196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7">
-      <c r="B197">
-        <v>196</v>
-      </c>
-      <c r="C197" t="s">
-        <v>383</v>
-      </c>
-      <c r="D197" t="s">
-        <v>252</v>
-      </c>
-      <c r="E197" t="s">
-        <v>649</v>
-      </c>
-      <c r="G197" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7">
-      <c r="B198">
-        <v>197</v>
-      </c>
-      <c r="C198" t="s">
-        <v>650</v>
-      </c>
-      <c r="D198" t="s">
-        <v>651</v>
-      </c>
-      <c r="E198" t="s">
-        <v>652</v>
-      </c>
-      <c r="G198" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7">
-      <c r="B199">
-        <v>198</v>
-      </c>
-      <c r="C199" t="s">
-        <v>388</v>
-      </c>
-      <c r="D199" t="s">
-        <v>653</v>
-      </c>
-      <c r="E199" t="s">
-        <v>654</v>
-      </c>
-      <c r="G199" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7">
-      <c r="B200">
-        <v>199</v>
-      </c>
-      <c r="C200" t="s">
-        <v>655</v>
-      </c>
-      <c r="D200" t="s">
-        <v>656</v>
-      </c>
-      <c r="E200" t="s">
-        <v>657</v>
-      </c>
-      <c r="G200" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7">
-      <c r="B201">
-        <v>200</v>
-      </c>
-      <c r="C201" t="s">
-        <v>394</v>
-      </c>
-      <c r="D201" t="s">
-        <v>658</v>
-      </c>
-      <c r="E201" t="s">
-        <v>659</v>
-      </c>
-      <c r="G201" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7">
-      <c r="B202">
-        <v>201</v>
-      </c>
-      <c r="C202" t="s">
-        <v>660</v>
-      </c>
-      <c r="D202" t="s">
-        <v>661</v>
-      </c>
-      <c r="E202" t="s">
-        <v>662</v>
-      </c>
-      <c r="G202" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7">
-      <c r="B203">
-        <v>202</v>
-      </c>
-      <c r="C203" t="s">
-        <v>663</v>
-      </c>
-      <c r="D203" t="s">
-        <v>664</v>
-      </c>
-      <c r="E203" t="s">
-        <v>665</v>
-      </c>
-      <c r="G203" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7">
-      <c r="B204">
-        <v>203</v>
-      </c>
-      <c r="C204" t="s">
-        <v>666</v>
-      </c>
-      <c r="D204" t="s">
-        <v>667</v>
-      </c>
-      <c r="E204" t="s">
-        <v>668</v>
-      </c>
-      <c r="G204" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7">
-      <c r="B205">
-        <v>204</v>
-      </c>
-      <c r="C205" t="s">
-        <v>669</v>
-      </c>
-      <c r="D205" t="s">
-        <v>670</v>
-      </c>
-      <c r="E205" t="s">
-        <v>671</v>
-      </c>
-      <c r="G205" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7">
-      <c r="B206">
-        <v>205</v>
-      </c>
-      <c r="C206" t="s">
-        <v>672</v>
-      </c>
-      <c r="D206" t="s">
-        <v>673</v>
-      </c>
-      <c r="E206" t="s">
-        <v>674</v>
-      </c>
-      <c r="G206" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7">
-      <c r="B207">
-        <v>206</v>
-      </c>
-      <c r="C207" t="s">
-        <v>675</v>
-      </c>
-      <c r="D207" t="s">
-        <v>676</v>
-      </c>
-      <c r="E207" t="s">
-        <v>677</v>
-      </c>
-      <c r="G207" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7">
-      <c r="B208">
-        <v>207</v>
-      </c>
       <c r="C208" t="s">
-        <v>191</v>
+        <v>678</v>
       </c>
       <c r="D208" t="s">
-        <v>678</v>
-      </c>
-      <c r="E208" t="s">
         <v>679</v>
       </c>
-      <c r="G208" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7">
-      <c r="B209">
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
         <v>208</v>
       </c>
+      <c r="B209" t="s">
+        <v>680</v>
+      </c>
       <c r="C209" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D209" t="s">
-        <v>681</v>
-      </c>
-      <c r="E209" t="s">
         <v>682</v>
       </c>
-      <c r="G209" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7">
-      <c r="B210">
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
         <v>209</v>
       </c>
+      <c r="B210" t="s">
+        <v>683</v>
+      </c>
       <c r="C210" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D210" t="s">
-        <v>684</v>
-      </c>
-      <c r="E210" t="s">
         <v>685</v>
       </c>
-      <c r="G210" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7">
-      <c r="B211">
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
         <v>210</v>
       </c>
+      <c r="B211" t="s">
+        <v>686</v>
+      </c>
       <c r="C211" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D211" t="s">
-        <v>687</v>
-      </c>
-      <c r="E211" t="s">
         <v>688</v>
       </c>
-      <c r="G211" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7">
-      <c r="B212">
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
         <v>211</v>
       </c>
+      <c r="B212" t="s">
+        <v>689</v>
+      </c>
       <c r="C212" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D212" t="s">
-        <v>690</v>
-      </c>
-      <c r="E212" t="s">
         <v>691</v>
       </c>
-      <c r="G212" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7">
-      <c r="B213">
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
         <v>212</v>
       </c>
+      <c r="B213" t="s">
+        <v>692</v>
+      </c>
       <c r="C213" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D213" t="s">
-        <v>693</v>
-      </c>
-      <c r="E213" t="s">
         <v>694</v>
       </c>
-      <c r="G213" t="s">
+      <c r="F213" t="s">
         <v>10</v>
       </c>
     </row>
